--- a/src/c/results/sheet.xlsx
+++ b/src/c/results/sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Degrees</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Why does the angle between two galaxies sometime return null and sometimes nan?</t>
+  </si>
+  <si>
+    <t>Must the DD/RR histogram be of equal length to the DR histogram?</t>
   </si>
   <si>
     <t>The number of blocks doesn't seem to affect the results that much.</t>
@@ -187,11 +190,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="483123493"/>
-        <c:axId val="861664892"/>
+        <c:axId val="811166758"/>
+        <c:axId val="1503613836"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="483123493"/>
+        <c:axId val="811166758"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -223,10 +226,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="861664892"/>
+        <c:crossAx val="1503613836"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="861664892"/>
+        <c:axId val="1503613836"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -274,7 +277,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483123493"/>
+        <c:crossAx val="811166758"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -340,11 +343,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1226654345"/>
-        <c:axId val="577863188"/>
+        <c:axId val="2107108860"/>
+        <c:axId val="1366956316"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1226654345"/>
+        <c:axId val="2107108860"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,10 +379,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577863188"/>
+        <c:crossAx val="1366956316"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="577863188"/>
+        <c:axId val="1366956316"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,7 +430,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1226654345"/>
+        <c:crossAx val="2107108860"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -468,7 +471,7 @@
     <xdr:ext cx="8610600" cy="6276975"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -493,7 +496,7 @@
     <xdr:ext cx="8610600" cy="6276975"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -549,13 +552,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1">
-        <v>2353476.0</v>
+        <v>2351068.0</v>
       </c>
       <c r="C2" s="1">
-        <v>1141990.0</v>
+        <v>1140664.0</v>
       </c>
       <c r="E2" s="2">
-        <v>2.365213</v>
+        <v>2.365547</v>
       </c>
     </row>
     <row r="3">
@@ -564,13 +567,13 @@
         <v>0.25</v>
       </c>
       <c r="B3" s="1">
-        <v>4356496.0</v>
+        <v>4356274.0</v>
       </c>
       <c r="C3" s="1">
-        <v>2674002.0</v>
+        <v>2673494.0</v>
       </c>
       <c r="E3" s="2">
-        <v>1.744057</v>
+        <v>1.744397</v>
       </c>
     </row>
     <row r="4">
@@ -579,13 +582,13 @@
         <v>0.5</v>
       </c>
       <c r="B4" s="1">
-        <v>5585410.0</v>
+        <v>5588934.0</v>
       </c>
       <c r="C4" s="1">
-        <v>4055688.0</v>
+        <v>4058122.0</v>
       </c>
       <c r="E4" s="2">
-        <v>1.418117</v>
+        <v>1.418137</v>
       </c>
     </row>
     <row r="5">
@@ -594,13 +597,13 @@
         <v>0.75</v>
       </c>
       <c r="B5" s="1">
-        <v>6483062.0</v>
+        <v>6483472.0</v>
       </c>
       <c r="C5" s="1">
-        <v>5272392.0</v>
+        <v>5272646.0</v>
       </c>
       <c r="E5" s="2">
-        <v>1.215438</v>
+        <v>1.215431</v>
       </c>
     </row>
     <row r="6">
@@ -609,13 +612,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>7324854.0</v>
+        <v>7323410.0</v>
       </c>
       <c r="C6" s="1">
-        <v>6390540.0</v>
+        <v>6389582.0</v>
       </c>
       <c r="E6" s="2">
-        <v>1.086645</v>
+        <v>1.08664</v>
       </c>
     </row>
     <row r="7">
@@ -624,13 +627,13 @@
         <v>1.25</v>
       </c>
       <c r="B7" s="1">
-        <v>8171938.0</v>
+        <v>8173712.0</v>
       </c>
       <c r="C7" s="1">
-        <v>7466676.0</v>
+        <v>7468350.0</v>
       </c>
       <c r="E7" s="2">
-        <v>1.00206</v>
+        <v>1.002035</v>
       </c>
     </row>
     <row r="8">
@@ -639,13 +642,13 @@
         <v>1.5</v>
       </c>
       <c r="B8" s="1">
-        <v>8985212.0</v>
+        <v>8985408.0</v>
       </c>
       <c r="C8" s="1">
-        <v>8468256.0</v>
+        <v>8468476.0</v>
       </c>
       <c r="E8" s="2">
-        <v>0.936969</v>
+        <v>0.936967</v>
       </c>
     </row>
     <row r="9">
@@ -654,13 +657,13 @@
         <v>1.75</v>
       </c>
       <c r="B9" s="1">
-        <v>9791024.0</v>
+        <v>9790182.0</v>
       </c>
       <c r="C9" s="1">
-        <v>9434882.0</v>
+        <v>9434014.0</v>
       </c>
       <c r="E9" s="2">
-        <v>0.884522</v>
+        <v>0.884515</v>
       </c>
     </row>
     <row r="10">
@@ -669,13 +672,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>1.064509E7</v>
+        <v>1.0643498E7</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0334212E7</v>
+        <v>1.0332768E7</v>
       </c>
       <c r="E10" s="2">
-        <v>0.84577</v>
+        <v>0.845761</v>
       </c>
     </row>
     <row r="11">
@@ -684,13 +687,13 @@
         <v>2.25</v>
       </c>
       <c r="B11" s="1">
-        <v>1.1406674E7</v>
+        <v>1.1408402E7</v>
       </c>
       <c r="C11" s="1">
-        <v>1.1200328E7</v>
+        <v>1.12019E7</v>
       </c>
       <c r="E11" s="2">
-        <v>0.810935</v>
+        <v>0.810948</v>
       </c>
     </row>
     <row r="12">
@@ -699,13 +702,13 @@
         <v>2.5</v>
       </c>
       <c r="B12" s="1">
-        <v>1.2091378E7</v>
+        <v>1.2088914E7</v>
       </c>
       <c r="C12" s="1">
-        <v>1.2082152E7</v>
+        <v>1.207972E7</v>
       </c>
       <c r="E12" s="2">
-        <v>0.775452</v>
+        <v>0.775444</v>
       </c>
     </row>
     <row r="13">
@@ -714,10 +717,10 @@
         <v>2.75</v>
       </c>
       <c r="B13" s="1">
-        <v>1.2824194E7</v>
+        <v>1.2825176E7</v>
       </c>
       <c r="C13" s="1">
-        <v>1.2895602E7</v>
+        <v>1.2896668E7</v>
       </c>
       <c r="E13" s="2">
         <v>0.747069</v>
@@ -729,13 +732,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>1.3523468E7</v>
+        <v>1.3524476E7</v>
       </c>
       <c r="C14" s="1">
-        <v>1.368856E7</v>
+        <v>1.3689598E7</v>
       </c>
       <c r="E14" s="2">
-        <v>0.716892</v>
+        <v>0.716896</v>
       </c>
     </row>
     <row r="15">
@@ -744,13 +747,13 @@
         <v>3.25</v>
       </c>
       <c r="B15" s="1">
-        <v>1.417183E7</v>
+        <v>1.4169842E7</v>
       </c>
       <c r="C15" s="1">
-        <v>1.4447156E7</v>
+        <v>1.444502E7</v>
       </c>
       <c r="E15" s="2">
-        <v>0.686136</v>
+        <v>0.686127</v>
       </c>
     </row>
     <row r="16">
@@ -759,13 +762,13 @@
         <v>3.5</v>
       </c>
       <c r="B16" s="1">
-        <v>1.47935E7</v>
+        <v>1.479539E7</v>
       </c>
       <c r="C16" s="1">
-        <v>1.5171004E7</v>
+        <v>1.517306E7</v>
       </c>
       <c r="E16" s="2">
-        <v>0.656729</v>
+        <v>0.656725</v>
       </c>
     </row>
     <row r="17">
@@ -774,13 +777,13 @@
         <v>3.75</v>
       </c>
       <c r="B17" s="1">
-        <v>1.5507894E7</v>
+        <v>1.5507454E7</v>
       </c>
       <c r="C17" s="1">
-        <v>1.5923432E7</v>
+        <v>1.592295E7</v>
       </c>
       <c r="E17" s="2">
-        <v>0.63609</v>
+        <v>0.636098</v>
       </c>
     </row>
     <row r="18">
@@ -789,13 +792,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>1.622736E7</v>
+        <v>1.622796E7</v>
       </c>
       <c r="C18" s="1">
-        <v>1.6615278E7</v>
+        <v>1.6615858E7</v>
       </c>
       <c r="E18" s="2">
-        <v>0.617987</v>
+        <v>0.617979</v>
       </c>
     </row>
     <row r="19">
@@ -804,13 +807,13 @@
         <v>4.25</v>
       </c>
       <c r="B19" s="1">
-        <v>1.6891358E7</v>
+        <v>1.6890462E7</v>
       </c>
       <c r="C19" s="1">
-        <v>1.7303198E7</v>
+        <v>1.7302312E7</v>
       </c>
       <c r="E19" s="2">
-        <v>0.600112</v>
+        <v>0.60012</v>
       </c>
     </row>
     <row r="20">
@@ -819,13 +822,13 @@
         <v>4.5</v>
       </c>
       <c r="B20" s="1">
-        <v>1.7463932E7</v>
+        <v>1.7464712E7</v>
       </c>
       <c r="C20" s="1">
-        <v>1.7952008E7</v>
+        <v>1.7952712E7</v>
       </c>
       <c r="E20" s="2">
-        <v>0.57888</v>
+        <v>0.578883</v>
       </c>
     </row>
     <row r="21">
@@ -834,13 +837,13 @@
         <v>4.75</v>
       </c>
       <c r="B21" s="1">
-        <v>1.8042778E7</v>
+        <v>1.8042554E7</v>
       </c>
       <c r="C21" s="1">
-        <v>1.8572536E7</v>
+        <v>1.857238E7</v>
       </c>
       <c r="E21" s="2">
-        <v>0.563268</v>
+        <v>0.563271</v>
       </c>
     </row>
     <row r="22">
@@ -849,13 +852,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1">
-        <v>1.8704656E7</v>
+        <v>1.8703978E7</v>
       </c>
       <c r="C22" s="1">
-        <v>1.9203682E7</v>
+        <v>1.9202834E7</v>
       </c>
       <c r="E22" s="2">
-        <v>0.550811</v>
+        <v>0.550815</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +867,13 @@
         <v>5.25</v>
       </c>
       <c r="B23" s="1">
-        <v>1.9388884E7</v>
+        <v>1.9387928E7</v>
       </c>
       <c r="C23" s="1">
-        <v>1.9817324E7</v>
+        <v>1.981641E7</v>
       </c>
       <c r="E23" s="2">
-        <v>0.539621</v>
+        <v>0.539613</v>
       </c>
     </row>
     <row r="24">
@@ -879,13 +882,13 @@
         <v>5.5</v>
       </c>
       <c r="B24" s="1">
-        <v>2.011797E7</v>
+        <v>2.0119812E7</v>
       </c>
       <c r="C24" s="1">
-        <v>2.0408524E7</v>
+        <v>2.0410556E7</v>
       </c>
       <c r="E24" s="2">
-        <v>0.531517</v>
+        <v>0.531516</v>
       </c>
     </row>
     <row r="25">
@@ -894,10 +897,10 @@
         <v>5.75</v>
       </c>
       <c r="B25" s="1">
-        <v>2.0833736E7</v>
+        <v>2.0833546E7</v>
       </c>
       <c r="C25" s="1">
-        <v>2.0986778E7</v>
+        <v>2.0986458E7</v>
       </c>
       <c r="E25" s="2">
         <v>0.525325</v>
@@ -909,13 +912,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>2.148462E7</v>
+        <v>2.1485432E7</v>
       </c>
       <c r="C26" s="1">
-        <v>2.1553772E7</v>
+        <v>2.1554474E7</v>
       </c>
       <c r="E26" s="2">
-        <v>0.517967</v>
+        <v>0.517975</v>
       </c>
     </row>
     <row r="27">
@@ -924,13 +927,13 @@
         <v>6.25</v>
       </c>
       <c r="B27" s="1">
-        <v>2.2087458E7</v>
+        <v>2.2086638E7</v>
       </c>
       <c r="C27" s="1">
-        <v>2.2097144E7</v>
+        <v>2.2096432E7</v>
       </c>
       <c r="E27" s="2">
-        <v>0.506381</v>
+        <v>0.506373</v>
       </c>
     </row>
     <row r="28">
@@ -939,13 +942,13 @@
         <v>6.5</v>
       </c>
       <c r="B28" s="1">
-        <v>2.2639006E7</v>
+        <v>2.2637204E7</v>
       </c>
       <c r="C28" s="1">
-        <v>2.2615488E7</v>
+        <v>2.2613886E7</v>
       </c>
       <c r="E28" s="2">
-        <v>0.494531</v>
+        <v>0.494536</v>
       </c>
     </row>
     <row r="29">
@@ -954,13 +957,13 @@
         <v>6.75</v>
       </c>
       <c r="B29" s="1">
-        <v>2.3159082E7</v>
+        <v>2.315972E7</v>
       </c>
       <c r="C29" s="1">
-        <v>2.3166154E7</v>
+        <v>2.316653E7</v>
       </c>
       <c r="E29" s="2">
-        <v>0.482265</v>
+        <v>0.482266</v>
       </c>
     </row>
     <row r="30">
@@ -969,13 +972,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="1">
-        <v>2.3814354E7</v>
+        <v>2.381459E7</v>
       </c>
       <c r="C30" s="1">
-        <v>2.368964E7</v>
+        <v>2.3690034E7</v>
       </c>
       <c r="E30" s="2">
-        <v>0.474497</v>
+        <v>0.474492</v>
       </c>
     </row>
     <row r="31">
@@ -984,13 +987,13 @@
         <v>7.25</v>
       </c>
       <c r="B31" s="1">
-        <v>2.4394354E7</v>
+        <v>2.4395034E7</v>
       </c>
       <c r="C31" s="1">
-        <v>2.4222578E7</v>
+        <v>2.4223252E7</v>
       </c>
       <c r="E31" s="2">
-        <v>0.46695</v>
+        <v>0.466944</v>
       </c>
     </row>
     <row r="32">
@@ -999,13 +1002,13 @@
         <v>7.5</v>
       </c>
       <c r="B32" s="1">
-        <v>2.4821612E7</v>
+        <v>2.4820656E7</v>
       </c>
       <c r="C32" s="1">
-        <v>2.4717728E7</v>
+        <v>2.4716666E7</v>
       </c>
       <c r="E32" s="2">
-        <v>0.452091</v>
+        <v>0.452094</v>
       </c>
     </row>
     <row r="33">
@@ -1014,13 +1017,13 @@
         <v>7.75</v>
       </c>
       <c r="B33" s="1">
-        <v>2.5169986E7</v>
+        <v>2.5170238E7</v>
       </c>
       <c r="C33" s="1">
-        <v>2.5170466E7</v>
+        <v>2.5170706E7</v>
       </c>
       <c r="E33" s="2">
-        <v>0.431618</v>
+        <v>0.431623</v>
       </c>
     </row>
     <row r="34">
@@ -1029,10 +1032,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="1">
-        <v>2.5583846E7</v>
+        <v>2.5583382E7</v>
       </c>
       <c r="C34" s="1">
-        <v>2.5678172E7</v>
+        <v>2.5677728E7</v>
       </c>
       <c r="E34" s="2">
         <v>0.416177</v>
@@ -1044,13 +1047,13 @@
         <v>8.25</v>
       </c>
       <c r="B35" s="1">
-        <v>2.6090522E7</v>
+        <v>2.6092138E7</v>
       </c>
       <c r="C35" s="1">
-        <v>2.6136054E7</v>
+        <v>2.6137758E7</v>
       </c>
       <c r="E35" s="2">
-        <v>0.406893</v>
+        <v>0.40689</v>
       </c>
     </row>
     <row r="36">
@@ -1059,13 +1062,13 @@
         <v>8.5</v>
       </c>
       <c r="B36" s="1">
-        <v>2.664386E7</v>
+        <v>2.6643354E7</v>
       </c>
       <c r="C36" s="1">
-        <v>2.6559882E7</v>
+        <v>2.6559302E7</v>
       </c>
       <c r="E36" s="2">
-        <v>0.397438</v>
+        <v>0.39744</v>
       </c>
     </row>
     <row r="37">
@@ -1074,13 +1077,13 @@
         <v>8.75</v>
       </c>
       <c r="B37" s="1">
-        <v>2.7239174E7</v>
+        <v>2.7239326E7</v>
       </c>
       <c r="C37" s="1">
-        <v>2.6976598E7</v>
+        <v>2.6976824E7</v>
       </c>
       <c r="E37" s="2">
-        <v>0.389915</v>
+        <v>0.389914</v>
       </c>
     </row>
     <row r="38">
@@ -1089,13 +1092,13 @@
         <v>9</v>
       </c>
       <c r="B38" s="1">
-        <v>2.7863846E7</v>
+        <v>2.7862972E7</v>
       </c>
       <c r="C38" s="1">
-        <v>2.7415814E7</v>
+        <v>2.7414862E7</v>
       </c>
       <c r="E38" s="2">
-        <v>0.381754</v>
+        <v>0.381756</v>
       </c>
     </row>
     <row r="39">
@@ -1104,13 +1107,13 @@
         <v>9.25</v>
       </c>
       <c r="B39" s="1">
-        <v>2.8678296E7</v>
+        <v>2.867914E7</v>
       </c>
       <c r="C39" s="1">
-        <v>2.7825386E7</v>
+        <v>2.782614E7</v>
       </c>
       <c r="E39" s="2">
-        <v>0.381302</v>
+        <v>0.381303</v>
       </c>
     </row>
     <row r="40">
@@ -1119,13 +1122,13 @@
         <v>9.5</v>
       </c>
       <c r="B40" s="1">
-        <v>2.9415548E7</v>
+        <v>2.941626E7</v>
       </c>
       <c r="C40" s="1">
-        <v>2.8235624E7</v>
+        <v>2.823641E7</v>
       </c>
       <c r="E40" s="2">
-        <v>0.379084</v>
+        <v>0.37908</v>
       </c>
     </row>
     <row r="41">
@@ -1134,10 +1137,10 @@
         <v>9.75</v>
       </c>
       <c r="B41" s="1">
-        <v>3.0148288E7</v>
+        <v>3.0147118E7</v>
       </c>
       <c r="C41" s="1">
-        <v>2.8637996E7</v>
+        <v>2.8636848E7</v>
       </c>
       <c r="E41" s="2">
         <v>0.379266</v>
@@ -1149,13 +1152,13 @@
         <v>10</v>
       </c>
       <c r="B42" s="1">
-        <v>3.0692522E7</v>
+        <v>3.0692336E7</v>
       </c>
       <c r="C42" s="1">
-        <v>2.905535E7</v>
+        <v>2.9055276E7</v>
       </c>
       <c r="E42" s="2">
-        <v>0.372546</v>
+        <v>0.372549</v>
       </c>
     </row>
     <row r="43">
@@ -1164,13 +1167,13 @@
         <v>10.25</v>
       </c>
       <c r="B43" s="1">
-        <v>3.1114942E7</v>
+        <v>3.1114044E7</v>
       </c>
       <c r="C43" s="1">
-        <v>2.9423894E7</v>
+        <v>2.942305E7</v>
       </c>
       <c r="E43" s="2">
-        <v>0.363792</v>
+        <v>0.363788</v>
       </c>
     </row>
     <row r="44">
@@ -1179,13 +1182,13 @@
         <v>10.5</v>
       </c>
       <c r="B44" s="1">
-        <v>3.1412768E7</v>
+        <v>3.141421E7</v>
       </c>
       <c r="C44" s="1">
-        <v>2.9807602E7</v>
+        <v>2.980888E7</v>
       </c>
       <c r="E44" s="2">
-        <v>0.34899</v>
+        <v>0.348994</v>
       </c>
     </row>
     <row r="45">
@@ -1194,13 +1197,13 @@
         <v>10.75</v>
       </c>
       <c r="B45" s="1">
-        <v>3.1574248E7</v>
+        <v>3.157358E7</v>
       </c>
       <c r="C45" s="1">
-        <v>3.0167794E7</v>
+        <v>3.0167142E7</v>
       </c>
       <c r="E45" s="2">
-        <v>0.329614</v>
+        <v>0.32961</v>
       </c>
     </row>
     <row r="46">
@@ -1209,13 +1212,13 @@
         <v>11</v>
       </c>
       <c r="B46" s="1">
-        <v>3.1991278E7</v>
+        <v>3.1991832E7</v>
       </c>
       <c r="C46" s="1">
-        <v>3.0494728E7</v>
+        <v>3.049526E7</v>
       </c>
       <c r="E46" s="2">
-        <v>0.316674</v>
+        <v>0.316677</v>
       </c>
     </row>
     <row r="47">
@@ -1224,13 +1227,13 @@
         <v>11.25</v>
       </c>
       <c r="B47" s="1">
-        <v>3.2620728E7</v>
+        <v>3.262055E7</v>
       </c>
       <c r="C47" s="1">
-        <v>3.0876958E7</v>
+        <v>3.0876766E7</v>
       </c>
       <c r="E47" s="2">
-        <v>0.313275</v>
+        <v>0.313274</v>
       </c>
     </row>
     <row r="48">
@@ -1239,13 +1242,13 @@
         <v>11.5</v>
       </c>
       <c r="B48" s="1">
-        <v>3.3175492E7</v>
+        <v>3.3175326E7</v>
       </c>
       <c r="C48" s="1">
-        <v>3.1179852E7</v>
+        <v>3.117981E7</v>
       </c>
       <c r="E48" s="2">
-        <v>0.304881</v>
+        <v>0.30488</v>
       </c>
     </row>
     <row r="49">
@@ -1254,13 +1257,13 @@
         <v>11.75</v>
       </c>
       <c r="B49" s="1">
-        <v>3.3748598E7</v>
+        <v>3.3749044E7</v>
       </c>
       <c r="C49" s="1">
-        <v>3.1517544E7</v>
+        <v>3.1517998E7</v>
       </c>
       <c r="E49" s="2">
-        <v>0.299264</v>
+        <v>0.299263</v>
       </c>
     </row>
     <row r="50">
@@ -1269,13 +1272,13 @@
         <v>12</v>
       </c>
       <c r="B50" s="1">
-        <v>3.4320386E7</v>
+        <v>3.431993E7</v>
       </c>
       <c r="C50" s="1">
-        <v>3.1882864E7</v>
+        <v>3.1882382E7</v>
       </c>
       <c r="E50" s="2">
-        <v>0.292766</v>
+        <v>0.292768</v>
       </c>
     </row>
     <row r="51">
@@ -1284,13 +1287,13 @@
         <v>12.25</v>
       </c>
       <c r="B51" s="1">
-        <v>3.4714442E7</v>
+        <v>3.4713578E7</v>
       </c>
       <c r="C51" s="1">
-        <v>3.2195108E7</v>
+        <v>3.2194258E7</v>
       </c>
       <c r="E51" s="2">
-        <v>0.281707</v>
+        <v>0.281702</v>
       </c>
     </row>
     <row r="52">
@@ -1299,13 +1302,13 @@
         <v>12.5</v>
       </c>
       <c r="B52" s="1">
-        <v>3.5098408E7</v>
+        <v>3.5100238E7</v>
       </c>
       <c r="C52" s="1">
-        <v>3.2508756E7</v>
+        <v>3.251048E7</v>
       </c>
       <c r="E52" s="2">
-        <v>0.269653</v>
+        <v>0.269658</v>
       </c>
     </row>
     <row r="53">
@@ -1314,13 +1317,13 @@
         <v>12.75</v>
       </c>
       <c r="B53" s="1">
-        <v>3.5403646E7</v>
+        <v>3.5401998E7</v>
       </c>
       <c r="C53" s="1">
-        <v>3.281252E7</v>
+        <v>3.2810968E7</v>
       </c>
       <c r="E53" s="2">
-        <v>0.256183</v>
+        <v>0.25618</v>
       </c>
     </row>
     <row r="54">
@@ -1329,13 +1332,13 @@
         <v>13</v>
       </c>
       <c r="B54" s="1">
-        <v>3.574134E7</v>
+        <v>3.5741428E7</v>
       </c>
       <c r="C54" s="1">
-        <v>3.3096774E7</v>
+        <v>3.309689E7</v>
       </c>
       <c r="E54" s="2">
-        <v>0.244503</v>
+        <v>0.244509</v>
       </c>
     </row>
     <row r="55">
@@ -1344,13 +1347,13 @@
         <v>13.25</v>
       </c>
       <c r="B55" s="1">
-        <v>3.6038152E7</v>
+        <v>3.6038428E7</v>
       </c>
       <c r="C55" s="1">
-        <v>3.3387848E7</v>
+        <v>3.3388078E7</v>
       </c>
       <c r="E55" s="2">
-        <v>0.234292</v>
+        <v>0.234289</v>
       </c>
     </row>
     <row r="56">
@@ -1359,10 +1362,10 @@
         <v>13.5</v>
       </c>
       <c r="B56" s="1">
-        <v>3.6516462E7</v>
+        <v>3.6517504E7</v>
       </c>
       <c r="C56" s="1">
-        <v>3.3710882E7</v>
+        <v>3.3711908E7</v>
       </c>
       <c r="E56" s="2">
         <v>0.231343</v>
@@ -1374,10 +1377,10 @@
         <v>13.75</v>
       </c>
       <c r="B57" s="1">
-        <v>3.6799818E7</v>
+        <v>3.6798344E7</v>
       </c>
       <c r="C57" s="1">
-        <v>3.396704E7</v>
+        <v>3.3965588E7</v>
       </c>
       <c r="E57" s="2">
         <v>0.221849</v>
@@ -1389,10 +1392,10 @@
         <v>14</v>
       </c>
       <c r="B58" s="1">
-        <v>3.703464E7</v>
+        <v>3.703532E7</v>
       </c>
       <c r="C58" s="1">
-        <v>3.4244056E7</v>
+        <v>3.4244834E7</v>
       </c>
       <c r="E58" s="2">
         <v>0.208955</v>
@@ -1404,13 +1407,13 @@
         <v>14.25</v>
       </c>
       <c r="B59" s="1">
-        <v>3.7509006E7</v>
+        <v>3.7508528E7</v>
       </c>
       <c r="C59" s="1">
-        <v>3.4510534E7</v>
+        <v>3.4509944E7</v>
       </c>
       <c r="E59" s="2">
-        <v>0.20413</v>
+        <v>0.204127</v>
       </c>
     </row>
     <row r="60">
@@ -1419,13 +1422,13 @@
         <v>14.5</v>
       </c>
       <c r="B60" s="1">
-        <v>3.7878176E7</v>
+        <v>3.7879322E7</v>
       </c>
       <c r="C60" s="1">
-        <v>3.4785824E7</v>
+        <v>3.4786926E7</v>
       </c>
       <c r="E60" s="2">
-        <v>0.193527</v>
+        <v>0.193536</v>
       </c>
     </row>
     <row r="61">
@@ -1434,13 +1437,13 @@
         <v>14.75</v>
       </c>
       <c r="B61" s="1">
-        <v>3.8171954E7</v>
+        <v>3.8171134E7</v>
       </c>
       <c r="C61" s="1">
-        <v>3.5052542E7</v>
+        <v>3.5051768E7</v>
       </c>
       <c r="E61" s="2">
-        <v>0.184695</v>
+        <v>0.184691</v>
       </c>
     </row>
     <row r="62">
@@ -1449,13 +1452,13 @@
         <v>15</v>
       </c>
       <c r="B62" s="1">
-        <v>3.8528546E7</v>
+        <v>3.8528822E7</v>
       </c>
       <c r="C62" s="1">
-        <v>3.5307056E7</v>
+        <v>3.5307262E7</v>
       </c>
       <c r="E62" s="2">
-        <v>0.176271</v>
+        <v>0.17627</v>
       </c>
     </row>
     <row r="63">
@@ -1464,13 +1467,13 @@
         <v>15.25</v>
       </c>
       <c r="B63" s="1">
-        <v>3.9033744E7</v>
+        <v>3.9033578E7</v>
       </c>
       <c r="C63" s="1">
-        <v>3.5542826E7</v>
+        <v>3.5542638E7</v>
       </c>
       <c r="E63" s="2">
-        <v>0.172074</v>
+        <v>0.172072</v>
       </c>
     </row>
     <row r="64">
@@ -1479,10 +1482,10 @@
         <v>15.5</v>
       </c>
       <c r="B64" s="1">
-        <v>3.9424752E7</v>
+        <v>3.942498E7</v>
       </c>
       <c r="C64" s="1">
-        <v>3.5810466E7</v>
+        <v>3.5810738E7</v>
       </c>
       <c r="E64" s="2">
         <v>0.166639</v>
@@ -1494,13 +1497,13 @@
         <v>15.75</v>
       </c>
       <c r="B65" s="1">
-        <v>3.9586756E7</v>
+        <v>3.9586262E7</v>
       </c>
       <c r="C65" s="1">
-        <v>3.6069314E7</v>
+        <v>3.6068764E7</v>
       </c>
       <c r="E65" s="2">
-        <v>0.153713</v>
+        <v>0.153715</v>
       </c>
     </row>
     <row r="66">
@@ -1509,13 +1512,13 @@
         <v>16</v>
       </c>
       <c r="B66" s="1">
-        <v>3.9634094E7</v>
+        <v>3.9635404E7</v>
       </c>
       <c r="C66" s="1">
-        <v>3.6320222E7</v>
+        <v>3.6321514E7</v>
       </c>
       <c r="E66" s="2">
-        <v>0.136248</v>
+        <v>0.136255</v>
       </c>
     </row>
     <row r="67">
@@ -1524,13 +1527,13 @@
         <v>16.25</v>
       </c>
       <c r="B67" s="1">
-        <v>3.97299E7</v>
+        <v>3.9729892E7</v>
       </c>
       <c r="C67" s="1">
-        <v>3.6553992E7</v>
+        <v>3.6554056E7</v>
       </c>
       <c r="E67" s="2">
-        <v>0.122676</v>
+        <v>0.122672</v>
       </c>
     </row>
     <row r="68">
@@ -1539,10 +1542,10 @@
         <v>16.5</v>
       </c>
       <c r="B68" s="1">
-        <v>4.0073036E7</v>
+        <v>4.007256E7</v>
       </c>
       <c r="C68" s="1">
-        <v>3.6776682E7</v>
+        <v>3.677623E7</v>
       </c>
       <c r="E68" s="2">
         <v>0.118545</v>
@@ -1554,13 +1557,13 @@
         <v>16.75</v>
       </c>
       <c r="B69" s="1">
-        <v>4.0423804E7</v>
+        <v>4.0423658E7</v>
       </c>
       <c r="C69" s="1">
-        <v>3.701797E7</v>
+        <v>3.7017712E7</v>
       </c>
       <c r="E69" s="2">
-        <v>0.1151</v>
+        <v>0.115099</v>
       </c>
     </row>
     <row r="70">
@@ -1569,13 +1572,13 @@
         <v>17</v>
       </c>
       <c r="B70" s="1">
-        <v>4.0670396E7</v>
+        <v>4.0669228E7</v>
       </c>
       <c r="C70" s="1">
-        <v>3.7214082E7</v>
+        <v>3.7213172E7</v>
       </c>
       <c r="E70" s="2">
-        <v>0.106353</v>
+        <v>0.106348</v>
       </c>
     </row>
     <row r="71">
@@ -1584,13 +1587,13 @@
         <v>17.25</v>
       </c>
       <c r="B71" s="1">
-        <v>4.0970008E7</v>
+        <v>4.09708E7</v>
       </c>
       <c r="C71" s="1">
-        <v>3.7435996E7</v>
+        <v>3.7436728E7</v>
       </c>
       <c r="E71" s="2">
-        <v>0.097986</v>
+        <v>0.097993</v>
       </c>
     </row>
     <row r="72">
@@ -1599,13 +1602,13 @@
         <v>17.5</v>
       </c>
       <c r="B72" s="1">
-        <v>4.1375344E7</v>
+        <v>4.1374988E7</v>
       </c>
       <c r="C72" s="1">
-        <v>3.763029E7</v>
+        <v>3.7629866E7</v>
       </c>
       <c r="E72" s="2">
-        <v>0.09311</v>
+        <v>0.093113</v>
       </c>
     </row>
     <row r="73">
@@ -1614,13 +1617,13 @@
         <v>17.75</v>
       </c>
       <c r="B73" s="1">
-        <v>4.1844892E7</v>
+        <v>4.1845884E7</v>
       </c>
       <c r="C73" s="1">
-        <v>3.7836874E7</v>
+        <v>3.783778E7</v>
       </c>
       <c r="E73" s="2">
-        <v>0.091955</v>
+        <v>0.091951</v>
       </c>
     </row>
     <row r="74">
@@ -1629,13 +1632,13 @@
         <v>18</v>
       </c>
       <c r="B74" s="1">
-        <v>4.2265012E7</v>
+        <v>4.2264616E7</v>
       </c>
       <c r="C74" s="1">
-        <v>3.8000826E7</v>
+        <v>3.800044E7</v>
       </c>
       <c r="E74" s="2">
-        <v>0.088962</v>
+        <v>0.088961</v>
       </c>
     </row>
     <row r="75">
@@ -1644,13 +1647,13 @@
         <v>18.25</v>
       </c>
       <c r="B75" s="1">
-        <v>4.2780994E7</v>
+        <v>4.2779872E7</v>
       </c>
       <c r="C75" s="1">
-        <v>3.8203978E7</v>
+        <v>3.8203078E7</v>
       </c>
       <c r="E75" s="2">
-        <v>0.091528</v>
+        <v>0.091527</v>
       </c>
     </row>
     <row r="76">
@@ -1659,13 +1662,13 @@
         <v>18.5</v>
       </c>
       <c r="B76" s="1">
-        <v>4.3342026E7</v>
+        <v>4.3343034E7</v>
       </c>
       <c r="C76" s="1">
-        <v>3.8399242E7</v>
+        <v>3.8400088E7</v>
       </c>
       <c r="E76" s="2">
-        <v>0.094272</v>
+        <v>0.094271</v>
       </c>
     </row>
     <row r="77">
@@ -1674,13 +1677,13 @@
         <v>18.75</v>
       </c>
       <c r="B77" s="1">
-        <v>4.379285E7</v>
+        <v>4.3792972E7</v>
       </c>
       <c r="C77" s="1">
-        <v>3.8563034E7</v>
+        <v>3.8563098E7</v>
       </c>
       <c r="E77" s="2">
-        <v>0.091573</v>
+        <v>0.091575</v>
       </c>
     </row>
     <row r="78">
@@ -1689,13 +1692,13 @@
         <v>19</v>
       </c>
       <c r="B78" s="1">
-        <v>4.416405E7</v>
+        <v>4.4164126E7</v>
       </c>
       <c r="C78" s="1">
-        <v>3.8704836E7</v>
+        <v>3.870492E7</v>
       </c>
       <c r="E78" s="2">
-        <v>0.086663</v>
+        <v>0.086664</v>
       </c>
     </row>
     <row r="79">
@@ -1704,13 +1707,13 @@
         <v>19.25</v>
       </c>
       <c r="B79" s="1">
-        <v>4.4359962E7</v>
+        <v>4.4360836E7</v>
       </c>
       <c r="C79" s="1">
-        <v>3.888682E7</v>
+        <v>3.8887554E7</v>
       </c>
       <c r="E79" s="2">
-        <v>0.078402</v>
+        <v>0.078401</v>
       </c>
     </row>
     <row r="80">
@@ -1719,13 +1722,13 @@
         <v>19.5</v>
       </c>
       <c r="B80" s="1">
-        <v>4.4557452E7</v>
+        <v>4.455624E7</v>
       </c>
       <c r="C80" s="1">
-        <v>3.9054992E7</v>
+        <v>3.9054128E7</v>
       </c>
       <c r="E80" s="2">
-        <v>0.067955</v>
+        <v>0.067953</v>
       </c>
     </row>
     <row r="81">
@@ -1734,13 +1737,13 @@
         <v>19.75</v>
       </c>
       <c r="B81" s="1">
-        <v>4.4870972E7</v>
+        <v>4.4870654E7</v>
       </c>
       <c r="C81" s="1">
-        <v>3.9218524E7</v>
+        <v>3.9218168E7</v>
       </c>
       <c r="E81" s="2">
-        <v>0.063867</v>
+        <v>0.06387</v>
       </c>
     </row>
     <row r="82">
@@ -1749,13 +1752,13 @@
         <v>20</v>
       </c>
       <c r="B82" s="1">
-        <v>4.5331786E7</v>
+        <v>4.5332868E7</v>
       </c>
       <c r="C82" s="1">
-        <v>3.9379464E7</v>
+        <v>3.9380368E7</v>
       </c>
       <c r="E82" s="2">
-        <v>0.062845</v>
+        <v>0.062842</v>
       </c>
     </row>
     <row r="83">
@@ -1764,13 +1767,13 @@
         <v>20.25</v>
       </c>
       <c r="B83" s="1">
-        <v>4.5680766E7</v>
+        <v>4.5680626E7</v>
       </c>
       <c r="C83" s="1">
-        <v>3.953055E7</v>
+        <v>3.9530428E7</v>
       </c>
       <c r="E83" s="2">
-        <v>0.059755</v>
+        <v>0.059752</v>
       </c>
     </row>
     <row r="84">
@@ -1779,13 +1782,13 @@
         <v>20.5</v>
       </c>
       <c r="B84" s="1">
-        <v>4.5931816E7</v>
+        <v>4.5931456E7</v>
       </c>
       <c r="C84" s="1">
-        <v>3.964307E7</v>
+        <v>3.964275E7</v>
       </c>
       <c r="E84" s="2">
-        <v>0.054387</v>
+        <v>0.05439</v>
       </c>
     </row>
     <row r="85">
@@ -1794,13 +1797,13 @@
         <v>20.75</v>
       </c>
       <c r="B85" s="1">
-        <v>4.6172016E7</v>
+        <v>4.617212E7</v>
       </c>
       <c r="C85" s="1">
-        <v>3.9786672E7</v>
+        <v>3.9786758E7</v>
       </c>
       <c r="E85" s="2">
-        <v>0.04996</v>
+        <v>0.049956</v>
       </c>
     </row>
     <row r="86">
@@ -1809,13 +1812,13 @@
         <v>21</v>
       </c>
       <c r="B86" s="1">
-        <v>4.6443902E7</v>
+        <v>4.6443654E7</v>
       </c>
       <c r="C86" s="1">
-        <v>3.9915554E7</v>
+        <v>3.9915432E7</v>
       </c>
       <c r="E86" s="2">
-        <v>0.0448</v>
+        <v>0.044805</v>
       </c>
     </row>
     <row r="87">
@@ -1824,13 +1827,13 @@
         <v>21.25</v>
       </c>
       <c r="B87" s="1">
-        <v>4.6815238E7</v>
+        <v>4.6815578E7</v>
       </c>
       <c r="C87" s="1">
-        <v>4.0003732E7</v>
+        <v>4.0003856E7</v>
       </c>
       <c r="E87" s="2">
-        <v>0.040518</v>
+        <v>0.040515</v>
       </c>
     </row>
     <row r="88">
@@ -1839,10 +1842,10 @@
         <v>21.5</v>
       </c>
       <c r="B88" s="1">
-        <v>4.7145932E7</v>
+        <v>4.714592E7</v>
       </c>
       <c r="C88" s="1">
-        <v>4.0160406E7</v>
+        <v>4.0160404E7</v>
       </c>
       <c r="E88" s="2">
         <v>0.036992</v>
@@ -1854,10 +1857,10 @@
         <v>21.75</v>
       </c>
       <c r="B89" s="1">
-        <v>4.7559726E7</v>
+        <v>4.7560222E7</v>
       </c>
       <c r="C89" s="1">
-        <v>4.0305476E7</v>
+        <v>4.0306016E7</v>
       </c>
       <c r="E89" s="2">
         <v>0.036091</v>
@@ -1869,13 +1872,13 @@
         <v>22</v>
       </c>
       <c r="B90" s="1">
-        <v>4.8048046E7</v>
+        <v>4.80466E7</v>
       </c>
       <c r="C90" s="1">
-        <v>4.0438964E7</v>
+        <v>4.0437598E7</v>
       </c>
       <c r="E90" s="2">
-        <v>0.035231</v>
+        <v>0.035227</v>
       </c>
     </row>
     <row r="91">
@@ -1884,13 +1887,13 @@
         <v>22.25</v>
       </c>
       <c r="B91" s="1">
-        <v>4.8460014E7</v>
+        <v>4.8460878E7</v>
       </c>
       <c r="C91" s="1">
-        <v>4.0545896E7</v>
+        <v>4.0546814E7</v>
       </c>
       <c r="E91" s="2">
-        <v>0.03615</v>
+        <v>0.036159</v>
       </c>
     </row>
     <row r="92">
@@ -1899,13 +1902,13 @@
         <v>22.5</v>
       </c>
       <c r="B92" s="1">
-        <v>4.8883642E7</v>
+        <v>4.8882702E7</v>
       </c>
       <c r="C92" s="1">
-        <v>4.0648608E7</v>
+        <v>4.0647716E7</v>
       </c>
       <c r="E92" s="2">
-        <v>0.038169</v>
+        <v>0.038166</v>
       </c>
     </row>
     <row r="93">
@@ -1914,13 +1917,13 @@
         <v>22.75</v>
       </c>
       <c r="B93" s="1">
-        <v>4.920248E7</v>
+        <v>4.9203916E7</v>
       </c>
       <c r="C93" s="1">
-        <v>4.0776024E7</v>
+        <v>4.077731E7</v>
       </c>
       <c r="E93" s="2">
-        <v>0.036891</v>
+        <v>0.036893</v>
       </c>
     </row>
     <row r="94">
@@ -1929,13 +1932,13 @@
         <v>23</v>
       </c>
       <c r="B94" s="1">
-        <v>4.9359708E7</v>
+        <v>4.9359414E7</v>
       </c>
       <c r="C94" s="1">
-        <v>4.0857846E7</v>
+        <v>4.0857572E7</v>
       </c>
       <c r="E94" s="2">
-        <v>0.031021</v>
+        <v>0.031019</v>
       </c>
     </row>
     <row r="95">
@@ -1944,13 +1947,13 @@
         <v>23.25</v>
       </c>
       <c r="B95" s="1">
-        <v>4.965298E7</v>
+        <v>4.9653662E7</v>
       </c>
       <c r="C95" s="1">
-        <v>4.0955306E7</v>
+        <v>4.095581E7</v>
       </c>
       <c r="E95" s="2">
-        <v>0.028807</v>
+        <v>0.02881</v>
       </c>
     </row>
     <row r="96">
@@ -1959,13 +1962,13 @@
         <v>23.5</v>
       </c>
       <c r="B96" s="1">
-        <v>4.9996548E7</v>
+        <v>4.9995584E7</v>
       </c>
       <c r="C96" s="1">
-        <v>4.1047686E7</v>
+        <v>4.1046904E7</v>
       </c>
       <c r="E96" s="2">
-        <v>0.02724</v>
+        <v>0.027239</v>
       </c>
     </row>
     <row r="97">
@@ -1974,13 +1977,13 @@
         <v>23.75</v>
       </c>
       <c r="B97" s="1">
-        <v>5.0056848E7</v>
+        <v>5.0056964E7</v>
       </c>
       <c r="C97" s="1">
-        <v>4.114156E7</v>
+        <v>4.1141656E7</v>
       </c>
       <c r="E97" s="2">
-        <v>0.021354</v>
+        <v>0.021351</v>
       </c>
     </row>
     <row r="98">
@@ -1989,13 +1992,13 @@
         <v>24</v>
       </c>
       <c r="B98" s="1">
-        <v>5.011169E7</v>
+        <v>5.011209E7</v>
       </c>
       <c r="C98" s="1">
-        <v>4.1242962E7</v>
+        <v>4.124341E7</v>
       </c>
       <c r="E98" s="2">
-        <v>0.016232</v>
+        <v>0.016234</v>
       </c>
     </row>
     <row r="99">
@@ -2004,13 +2007,13 @@
         <v>24.25</v>
       </c>
       <c r="B99" s="1">
-        <v>5.0244124E7</v>
+        <v>5.0242608E7</v>
       </c>
       <c r="C99" s="1">
-        <v>4.1301272E7</v>
+        <v>4.1299822E7</v>
       </c>
       <c r="E99" s="2">
-        <v>0.014937</v>
+        <v>0.014931</v>
       </c>
     </row>
     <row r="100">
@@ -2019,13 +2022,13 @@
         <v>24.5</v>
       </c>
       <c r="B100" s="1">
-        <v>5.0249984E7</v>
+        <v>5.0250614E7</v>
       </c>
       <c r="C100" s="1">
-        <v>4.1362374E7</v>
+        <v>4.1363042E7</v>
       </c>
       <c r="E100" s="2">
-        <v>0.008567</v>
+        <v>0.008574</v>
       </c>
     </row>
     <row r="101">
@@ -2034,13 +2037,13 @@
         <v>24.75</v>
       </c>
       <c r="B101" s="1">
-        <v>5.0482744E7</v>
+        <v>5.0483252E7</v>
       </c>
       <c r="C101" s="1">
-        <v>4.1438968E7</v>
+        <v>4.14394E7</v>
       </c>
       <c r="E101" s="2">
-        <v>0.009114</v>
+        <v>0.009112</v>
       </c>
     </row>
     <row r="102">
@@ -2049,13 +2052,13 @@
         <v>25</v>
       </c>
       <c r="B102" s="1">
-        <v>5.075759E7</v>
+        <v>5.0757294E7</v>
       </c>
       <c r="C102" s="1">
-        <v>4.151623E7</v>
+        <v>4.1515958E7</v>
       </c>
       <c r="E102" s="2">
-        <v>0.012523</v>
+        <v>0.012518</v>
       </c>
     </row>
     <row r="103">
@@ -2064,13 +2067,13 @@
         <v>25.25</v>
       </c>
       <c r="B103" s="1">
-        <v>5.1089106E7</v>
+        <v>5.1089042E7</v>
       </c>
       <c r="C103" s="1">
-        <v>4.1591332E7</v>
+        <v>4.159129E7</v>
       </c>
       <c r="E103" s="2">
-        <v>0.013208</v>
+        <v>0.013213</v>
       </c>
     </row>
     <row r="104">
@@ -2079,13 +2082,13 @@
         <v>25.5</v>
       </c>
       <c r="B104" s="1">
-        <v>5.139254E7</v>
+        <v>5.1391978E7</v>
       </c>
       <c r="C104" s="1">
-        <v>4.1654118E7</v>
+        <v>4.1653688E7</v>
       </c>
       <c r="E104" s="2">
-        <v>0.014396</v>
+        <v>0.014398</v>
       </c>
     </row>
     <row r="105">
@@ -2094,13 +2097,13 @@
         <v>25.75</v>
       </c>
       <c r="B105" s="1">
-        <v>5.178845E7</v>
+        <v>5.1789874E7</v>
       </c>
       <c r="C105" s="1">
-        <v>4.1709184E7</v>
+        <v>4.1710314E7</v>
       </c>
       <c r="E105" s="2">
-        <v>0.017116</v>
+        <v>0.017108</v>
       </c>
     </row>
     <row r="106">
@@ -2109,13 +2112,13 @@
         <v>26</v>
       </c>
       <c r="B106" s="1">
-        <v>5.2082668E7</v>
+        <v>5.2082506E7</v>
       </c>
       <c r="C106" s="1">
-        <v>4.1761738E7</v>
+        <v>4.176164E7</v>
       </c>
       <c r="E106" s="2">
-        <v>0.020164</v>
+        <v>0.020169</v>
       </c>
     </row>
     <row r="107">
@@ -2124,13 +2127,13 @@
         <v>26.25</v>
       </c>
       <c r="B107" s="1">
-        <v>5.2365484E7</v>
+        <v>5.2364418E7</v>
       </c>
       <c r="C107" s="1">
-        <v>4.1842518E7</v>
+        <v>4.1841724E7</v>
       </c>
       <c r="E107" s="2">
-        <v>0.023771</v>
+        <v>0.023768</v>
       </c>
     </row>
     <row r="108">
@@ -2139,13 +2142,13 @@
         <v>26.5</v>
       </c>
       <c r="B108" s="1">
-        <v>5.2751898E7</v>
+        <v>5.2752818E7</v>
       </c>
       <c r="C108" s="1">
-        <v>4.1893082E7</v>
+        <v>4.1893632E7</v>
       </c>
       <c r="E108" s="2">
-        <v>0.025147</v>
+        <v>0.025145</v>
       </c>
     </row>
     <row r="109">
@@ -2154,13 +2157,13 @@
         <v>26.75</v>
       </c>
       <c r="B109" s="1">
-        <v>5.2955398E7</v>
+        <v>5.29559E7</v>
       </c>
       <c r="C109" s="1">
-        <v>4.195121E7</v>
+        <v>4.1951694E7</v>
       </c>
       <c r="E109" s="2">
-        <v>0.022317</v>
+        <v>0.022322</v>
       </c>
     </row>
     <row r="110">
@@ -2169,13 +2172,13 @@
         <v>27</v>
       </c>
       <c r="B110" s="1">
-        <v>5.2919186E7</v>
+        <v>5.2918724E7</v>
       </c>
       <c r="C110" s="1">
-        <v>4.2005182E7</v>
+        <v>4.2004776E7</v>
       </c>
       <c r="E110" s="2">
-        <v>0.018805</v>
+        <v>0.018806</v>
       </c>
     </row>
     <row r="111">
@@ -2184,13 +2187,13 @@
         <v>27.25</v>
       </c>
       <c r="B111" s="1">
-        <v>5.2945706E7</v>
+        <v>5.294522E7</v>
       </c>
       <c r="C111" s="1">
-        <v>4.1994136E7</v>
+        <v>4.1993748E7</v>
       </c>
       <c r="E111" s="2">
-        <v>0.018016</v>
+        <v>0.018013</v>
       </c>
     </row>
     <row r="112">
@@ -2199,13 +2202,13 @@
         <v>27.5</v>
       </c>
       <c r="B112" s="1">
-        <v>5.2944416E7</v>
+        <v>5.294507E7</v>
       </c>
       <c r="C112" s="1">
-        <v>4.2028846E7</v>
+        <v>4.2029392E7</v>
       </c>
       <c r="E112" s="2">
-        <v>0.016697</v>
+        <v>0.016698</v>
       </c>
     </row>
     <row r="113">
@@ -2214,13 +2217,13 @@
         <v>27.75</v>
       </c>
       <c r="B113" s="1">
-        <v>5.3003578E7</v>
+        <v>5.3003188E7</v>
       </c>
       <c r="C113" s="1">
-        <v>4.210109E7</v>
+        <v>4.2100772E7</v>
       </c>
       <c r="E113" s="2">
-        <v>0.016182</v>
+        <v>0.016184</v>
       </c>
     </row>
     <row r="114">
@@ -2229,13 +2232,13 @@
         <v>28</v>
       </c>
       <c r="B114" s="1">
-        <v>5.3268114E7</v>
+        <v>5.3267636E7</v>
       </c>
       <c r="C114" s="1">
-        <v>4.214789E7</v>
+        <v>4.2147478E7</v>
       </c>
       <c r="E114" s="2">
-        <v>0.019936</v>
+        <v>0.019933</v>
       </c>
     </row>
     <row r="115">
@@ -2244,13 +2247,13 @@
         <v>28.25</v>
       </c>
       <c r="B115" s="1">
-        <v>5.3379032E7</v>
+        <v>5.3379596E7</v>
       </c>
       <c r="C115" s="1">
-        <v>4.2200672E7</v>
+        <v>4.2201126E7</v>
       </c>
       <c r="E115" s="2">
-        <v>0.024757</v>
+        <v>0.024761</v>
       </c>
     </row>
     <row r="116">
@@ -2259,13 +2262,13 @@
         <v>28.5</v>
       </c>
       <c r="B116" s="1">
-        <v>5.3513302E7</v>
+        <v>5.351264E7</v>
       </c>
       <c r="C116" s="1">
-        <v>4.2245668E7</v>
+        <v>4.2245158E7</v>
       </c>
       <c r="E116" s="2">
-        <v>0.026708</v>
+        <v>0.026702</v>
       </c>
     </row>
     <row r="117">
@@ -2274,13 +2277,13 @@
         <v>28.75</v>
       </c>
       <c r="B117" s="1">
-        <v>5.3542428E7</v>
+        <v>5.3543352E7</v>
       </c>
       <c r="C117" s="1">
-        <v>4.228515E7</v>
+        <v>4.228593E7</v>
       </c>
       <c r="E117" s="2">
-        <v>0.024871</v>
+        <v>0.024869</v>
       </c>
     </row>
     <row r="118">
@@ -2289,13 +2292,13 @@
         <v>29</v>
       </c>
       <c r="B118" s="1">
-        <v>5.359576E7</v>
+        <v>5.3596186E7</v>
       </c>
       <c r="C118" s="1">
-        <v>4.2318424E7</v>
+        <v>4.2318676E7</v>
       </c>
       <c r="E118" s="2">
-        <v>0.023907</v>
+        <v>0.023911</v>
       </c>
     </row>
     <row r="119">
@@ -2304,13 +2307,13 @@
         <v>29.25</v>
       </c>
       <c r="B119" s="1">
-        <v>5.3571794E7</v>
+        <v>5.3571026E7</v>
       </c>
       <c r="C119" s="1">
-        <v>4.2364766E7</v>
+        <v>4.2364248E7</v>
       </c>
       <c r="E119" s="2">
-        <v>0.021001</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="120">
@@ -2319,13 +2322,13 @@
         <v>29.5</v>
       </c>
       <c r="B120" s="1">
-        <v>5.349456E7</v>
+        <v>5.3495302E7</v>
       </c>
       <c r="C120" s="1">
-        <v>4.2366954E7</v>
+        <v>4.2367614E7</v>
       </c>
       <c r="E120" s="2">
-        <v>0.016806</v>
+        <v>0.016807</v>
       </c>
     </row>
     <row r="121">
@@ -2334,13 +2337,13 @@
         <v>29.75</v>
       </c>
       <c r="B121" s="1">
-        <v>5.3499672E7</v>
+        <v>5.3498594E7</v>
       </c>
       <c r="C121" s="1">
-        <v>4.2391534E7</v>
+        <v>4.2390538E7</v>
       </c>
       <c r="E121" s="2">
-        <v>0.015428</v>
+        <v>0.015427</v>
       </c>
     </row>
     <row r="122">
@@ -2349,13 +2352,13 @@
         <v>30</v>
       </c>
       <c r="B122" s="1">
-        <v>5.3284712E7</v>
+        <v>5.3284152E7</v>
       </c>
       <c r="C122" s="1">
-        <v>4.2411658E7</v>
+        <v>4.2411224E7</v>
       </c>
       <c r="E122" s="2">
-        <v>0.008821</v>
+        <v>0.008825</v>
       </c>
     </row>
     <row r="123">
@@ -2364,13 +2367,13 @@
         <v>30.25</v>
       </c>
       <c r="B123" s="1">
-        <v>5.326872E7</v>
+        <v>5.3269636E7</v>
       </c>
       <c r="C123" s="1">
-        <v>4.2438176E7</v>
+        <v>4.2438974E7</v>
       </c>
       <c r="E123" s="2">
-        <v>0.007734</v>
+        <v>0.007731</v>
       </c>
     </row>
     <row r="124">
@@ -2379,13 +2382,13 @@
         <v>30.5</v>
       </c>
       <c r="B124" s="1">
-        <v>5.3268918E7</v>
+        <v>5.326816E7</v>
       </c>
       <c r="C124" s="1">
-        <v>4.2450402E7</v>
+        <v>4.2449766E7</v>
       </c>
       <c r="E124" s="2">
-        <v>0.005498</v>
+        <v>0.005497</v>
       </c>
     </row>
     <row r="125">
@@ -2394,13 +2397,13 @@
         <v>30.75</v>
       </c>
       <c r="B125" s="1">
-        <v>5.3279872E7</v>
+        <v>5.328123E7</v>
       </c>
       <c r="C125" s="1">
-        <v>4.244553E7</v>
+        <v>4.2446652E7</v>
       </c>
       <c r="E125" s="2">
-        <v>0.003177</v>
+        <v>0.003178</v>
       </c>
     </row>
     <row r="126">
@@ -2409,13 +2412,13 @@
         <v>31</v>
       </c>
       <c r="B126" s="1">
-        <v>5.3248104E7</v>
+        <v>5.3246884E7</v>
       </c>
       <c r="C126" s="1">
-        <v>4.2451494E7</v>
+        <v>4.2450552E7</v>
       </c>
       <c r="E126" s="2">
-        <v>-4.97E-4</v>
+        <v>-4.96E-4</v>
       </c>
     </row>
     <row r="127">
@@ -2424,13 +2427,13 @@
         <v>31.25</v>
       </c>
       <c r="B127" s="1">
-        <v>5.3291722E7</v>
+        <v>5.3291804E7</v>
       </c>
       <c r="C127" s="1">
-        <v>4.2445608E7</v>
+        <v>4.2445694E7</v>
       </c>
       <c r="E127" s="2">
-        <v>-8.61E-4</v>
+        <v>-8.62E-4</v>
       </c>
     </row>
     <row r="128">
@@ -2439,13 +2442,13 @@
         <v>31.5</v>
       </c>
       <c r="B128" s="1">
-        <v>5.3312622E7</v>
+        <v>5.3313756E7</v>
       </c>
       <c r="C128" s="1">
-        <v>4.2435488E7</v>
+        <v>4.2436298E7</v>
       </c>
       <c r="E128" s="2">
-        <v>-0.001534</v>
+        <v>-0.001532</v>
       </c>
     </row>
     <row r="129">
@@ -2454,13 +2457,13 @@
         <v>31.75</v>
       </c>
       <c r="B129" s="1">
-        <v>5.3350998E7</v>
+        <v>5.3349768E7</v>
       </c>
       <c r="C129" s="1">
-        <v>4.2401872E7</v>
+        <v>4.2400978E7</v>
       </c>
       <c r="E129" s="2">
-        <v>-0.004935</v>
+        <v>-0.004937</v>
       </c>
     </row>
     <row r="130">
@@ -2469,10 +2472,10 @@
         <v>32</v>
       </c>
       <c r="B130" s="1">
-        <v>5.3440822E7</v>
+        <v>5.3441186E7</v>
       </c>
       <c r="C130" s="1">
-        <v>4.237078E7</v>
+        <v>4.2370986E7</v>
       </c>
       <c r="E130" s="2">
         <v>-0.006741</v>
@@ -2484,10 +2487,10 @@
         <v>32.25</v>
       </c>
       <c r="B131" s="1">
-        <v>5.3530958E7</v>
+        <v>5.3531116E7</v>
       </c>
       <c r="C131" s="1">
-        <v>4.2361656E7</v>
+        <v>4.2361866E7</v>
       </c>
       <c r="E131" s="2">
         <v>-0.006505</v>
@@ -2499,13 +2502,13 @@
         <v>32.5</v>
       </c>
       <c r="B132" s="1">
-        <v>5.3484642E7</v>
+        <v>5.3484328E7</v>
       </c>
       <c r="C132" s="1">
-        <v>4.2326458E7</v>
+        <v>4.2326056E7</v>
       </c>
       <c r="E132" s="2">
-        <v>-0.009705</v>
+        <v>-0.009703</v>
       </c>
     </row>
     <row r="133">
@@ -2514,13 +2517,13 @@
         <v>32.75</v>
       </c>
       <c r="B133" s="1">
-        <v>5.3442948E7</v>
+        <v>5.3442994E7</v>
       </c>
       <c r="C133" s="1">
-        <v>4.232506E7</v>
+        <v>4.2325148E7</v>
       </c>
       <c r="E133" s="2">
-        <v>-0.011476</v>
+        <v>-0.011481</v>
       </c>
     </row>
     <row r="134">
@@ -2529,13 +2532,13 @@
         <v>33</v>
       </c>
       <c r="B134" s="1">
-        <v>5.3592758E7</v>
+        <v>5.3593006E7</v>
       </c>
       <c r="C134" s="1">
-        <v>4.2294628E7</v>
+        <v>4.2294908E7</v>
       </c>
       <c r="E134" s="2">
-        <v>-0.008167</v>
+        <v>-0.008166</v>
       </c>
     </row>
     <row r="135">
@@ -2544,13 +2547,13 @@
         <v>33.25</v>
       </c>
       <c r="B135" s="1">
-        <v>5.3924916E7</v>
+        <v>5.3925074E7</v>
       </c>
       <c r="C135" s="1">
-        <v>4.2299446E7</v>
+        <v>4.2299496E7</v>
       </c>
       <c r="E135" s="2">
-        <v>8.63E-4</v>
+        <v>8.65E-4</v>
       </c>
     </row>
     <row r="136">
@@ -2559,13 +2562,13 @@
         <v>33.5</v>
       </c>
       <c r="B136" s="1">
-        <v>5.402642E7</v>
+        <v>5.4026074E7</v>
       </c>
       <c r="C136" s="1">
-        <v>4.228043E7</v>
+        <v>4.228014E7</v>
       </c>
       <c r="E136" s="2">
-        <v>0.001096</v>
+        <v>0.001095</v>
       </c>
     </row>
     <row r="137">
@@ -2574,13 +2577,13 @@
         <v>33.75</v>
       </c>
       <c r="B137" s="1">
-        <v>5.4112532E7</v>
+        <v>5.4111436E7</v>
       </c>
       <c r="C137" s="1">
-        <v>4.2272016E7</v>
+        <v>4.2271274E7</v>
       </c>
       <c r="E137" s="2">
-        <v>0.003401</v>
+        <v>0.003404</v>
       </c>
     </row>
     <row r="138">
@@ -2589,13 +2592,13 @@
         <v>34</v>
       </c>
       <c r="B138" s="1">
-        <v>5.4162396E7</v>
+        <v>5.4164112E7</v>
       </c>
       <c r="C138" s="1">
-        <v>4.2218414E7</v>
+        <v>4.2219714E7</v>
       </c>
       <c r="E138" s="2">
-        <v>0.00228</v>
+        <v>0.002278</v>
       </c>
     </row>
     <row r="139">
@@ -2604,10 +2607,10 @@
         <v>34.25</v>
       </c>
       <c r="B139" s="1">
-        <v>5.4341866E7</v>
+        <v>5.4340942E7</v>
       </c>
       <c r="C139" s="1">
-        <v>4.218499E7</v>
+        <v>4.218422E7</v>
       </c>
       <c r="E139" s="2">
         <v>0.0058</v>
@@ -2619,13 +2622,13 @@
         <v>34.5</v>
       </c>
       <c r="B140" s="1">
-        <v>5.4507932E7</v>
+        <v>5.450934E7</v>
       </c>
       <c r="C140" s="1">
-        <v>4.2156644E7</v>
+        <v>4.2157788E7</v>
       </c>
       <c r="E140" s="2">
-        <v>0.010064</v>
+        <v>0.010066</v>
       </c>
     </row>
     <row r="141">
@@ -2634,13 +2637,13 @@
         <v>34.75</v>
       </c>
       <c r="B141" s="1">
-        <v>5.4303428E7</v>
+        <v>5.4302948E7</v>
       </c>
       <c r="C141" s="1">
-        <v>4.2131592E7</v>
+        <v>4.2131174E7</v>
       </c>
       <c r="E141" s="2">
-        <v>0.005454</v>
+        <v>0.005451</v>
       </c>
     </row>
     <row r="142">
@@ -2649,13 +2652,13 @@
         <v>35</v>
       </c>
       <c r="B142" s="1">
-        <v>5.3919028E7</v>
+        <v>5.3917802E7</v>
       </c>
       <c r="C142" s="1">
-        <v>4.2055022E7</v>
+        <v>4.2054032E7</v>
       </c>
       <c r="E142" s="2">
-        <v>-0.004465</v>
+        <v>-0.004464</v>
       </c>
     </row>
     <row r="143">
@@ -2664,10 +2667,10 @@
         <v>35.25</v>
       </c>
       <c r="B143" s="1">
-        <v>5.368162E7</v>
+        <v>5.368301E7</v>
       </c>
       <c r="C143" s="1">
-        <v>4.2013598E7</v>
+        <v>4.2014712E7</v>
       </c>
       <c r="E143" s="2">
         <v>-0.009093</v>
@@ -2679,13 +2682,13 @@
         <v>35.5</v>
       </c>
       <c r="B144" s="1">
-        <v>5.3516144E7</v>
+        <v>5.3515038E7</v>
       </c>
       <c r="C144" s="1">
-        <v>4.1948748E7</v>
+        <v>4.1947834E7</v>
       </c>
       <c r="E144" s="2">
-        <v>-0.01444</v>
+        <v>-0.014443</v>
       </c>
     </row>
     <row r="145">
@@ -2694,13 +2697,13 @@
         <v>35.75</v>
       </c>
       <c r="B145" s="1">
-        <v>5.3435322E7</v>
+        <v>5.34352E7</v>
       </c>
       <c r="C145" s="1">
-        <v>4.1893632E7</v>
+        <v>4.189352E7</v>
       </c>
       <c r="E145" s="2">
-        <v>-0.018266</v>
+        <v>-0.018263</v>
       </c>
     </row>
     <row r="146">
@@ -2709,10 +2712,10 @@
         <v>36</v>
       </c>
       <c r="B146" s="1">
-        <v>5.32088E7</v>
+        <v>5.320927E7</v>
       </c>
       <c r="C146" s="1">
-        <v>4.1841324E7</v>
+        <v>4.1841778E7</v>
       </c>
       <c r="E146" s="2">
         <v>-0.022642</v>
@@ -2724,13 +2727,13 @@
         <v>36.25</v>
       </c>
       <c r="B147" s="1">
-        <v>5.3022754E7</v>
+        <v>5.302262E7</v>
       </c>
       <c r="C147" s="1">
-        <v>4.1777804E7</v>
+        <v>4.1777704E7</v>
       </c>
       <c r="E147" s="2">
-        <v>-0.024613</v>
+        <v>-0.024609</v>
       </c>
     </row>
     <row r="148">
@@ -2739,13 +2742,13 @@
         <v>36.5</v>
       </c>
       <c r="B148" s="1">
-        <v>5.2653736E7</v>
+        <v>5.2653744E7</v>
       </c>
       <c r="C148" s="1">
-        <v>4.1718634E7</v>
+        <v>4.1718728E7</v>
       </c>
       <c r="E148" s="2">
-        <v>-0.031572</v>
+        <v>-0.031576</v>
       </c>
     </row>
     <row r="149">
@@ -2754,13 +2757,13 @@
         <v>36.75</v>
       </c>
       <c r="B149" s="1">
-        <v>5.2260782E7</v>
+        <v>5.2260038E7</v>
       </c>
       <c r="C149" s="1">
-        <v>4.1663008E7</v>
+        <v>4.1662246E7</v>
       </c>
       <c r="E149" s="2">
-        <v>-0.038145</v>
+        <v>-0.038144</v>
       </c>
     </row>
     <row r="150">
@@ -2769,10 +2772,10 @@
         <v>37</v>
       </c>
       <c r="B150" s="1">
-        <v>5.1746642E7</v>
+        <v>5.1747826E7</v>
       </c>
       <c r="C150" s="1">
-        <v>4.1609594E7</v>
+        <v>4.1610568E7</v>
       </c>
       <c r="E150" s="2">
         <v>-0.049355</v>
@@ -2784,10 +2787,10 @@
         <v>37.25</v>
       </c>
       <c r="B151" s="1">
-        <v>5.1328154E7</v>
+        <v>5.1327932E7</v>
       </c>
       <c r="C151" s="1">
-        <v>4.155958E7</v>
+        <v>4.1559444E7</v>
       </c>
       <c r="E151" s="2">
         <v>-0.058253</v>
@@ -2799,13 +2802,13 @@
         <v>37.5</v>
       </c>
       <c r="B152" s="1">
-        <v>5.1065824E7</v>
+        <v>5.1066292E7</v>
       </c>
       <c r="C152" s="1">
-        <v>4.1499938E7</v>
+        <v>4.1500284E7</v>
       </c>
       <c r="E152" s="2">
-        <v>-0.064656</v>
+        <v>-0.064655</v>
       </c>
     </row>
     <row r="153">
@@ -2814,13 +2817,13 @@
         <v>37.75</v>
       </c>
       <c r="B153" s="1">
-        <v>5.0979576E7</v>
+        <v>5.0979368E7</v>
       </c>
       <c r="C153" s="1">
-        <v>4.1449554E7</v>
+        <v>4.1449402E7</v>
       </c>
       <c r="E153" s="2">
-        <v>-0.063718</v>
+        <v>-0.06372</v>
       </c>
     </row>
     <row r="154">
@@ -2829,13 +2832,13 @@
         <v>38</v>
       </c>
       <c r="B154" s="1">
-        <v>5.0908848E7</v>
+        <v>5.0907926E7</v>
       </c>
       <c r="C154" s="1">
-        <v>4.1348344E7</v>
+        <v>4.1347576E7</v>
       </c>
       <c r="E154" s="2">
-        <v>-0.065489</v>
+        <v>-0.065488</v>
       </c>
     </row>
     <row r="155">
@@ -2844,13 +2847,13 @@
         <v>38.25</v>
       </c>
       <c r="B155" s="1">
-        <v>5.078452E7</v>
+        <v>5.0786008E7</v>
       </c>
       <c r="C155" s="1">
-        <v>4.125515E7</v>
+        <v>4.1256376E7</v>
       </c>
       <c r="E155" s="2">
-        <v>-0.063595</v>
+        <v>-0.063594</v>
       </c>
     </row>
     <row r="156">
@@ -2859,13 +2862,13 @@
         <v>38.5</v>
       </c>
       <c r="B156" s="1">
-        <v>5.056636E7</v>
+        <v>5.0564524E7</v>
       </c>
       <c r="C156" s="1">
-        <v>4.1195096E7</v>
+        <v>4.1193598E7</v>
       </c>
       <c r="E156" s="2">
-        <v>-0.06799</v>
+        <v>-0.067994</v>
       </c>
     </row>
     <row r="157">
@@ -2874,13 +2877,13 @@
         <v>38.75</v>
       </c>
       <c r="B157" s="1">
-        <v>5.0144994E7</v>
+        <v>5.0146282E7</v>
       </c>
       <c r="C157" s="1">
-        <v>4.1141084E7</v>
+        <v>4.1142128E7</v>
       </c>
       <c r="E157" s="2">
-        <v>-0.073159</v>
+        <v>-0.073157</v>
       </c>
     </row>
     <row r="158">
@@ -2889,10 +2892,10 @@
         <v>39</v>
       </c>
       <c r="B158" s="1">
-        <v>4.981027E7</v>
+        <v>4.9809244E7</v>
       </c>
       <c r="C158" s="1">
-        <v>4.105677E7</v>
+        <v>4.105594E7</v>
       </c>
       <c r="E158" s="2">
         <v>-0.076743</v>
@@ -2904,13 +2907,13 @@
         <v>39.25</v>
       </c>
       <c r="B159" s="1">
-        <v>4.9517824E7</v>
+        <v>4.9517512E7</v>
       </c>
       <c r="C159" s="1">
-        <v>4.0973386E7</v>
+        <v>4.0973132E7</v>
       </c>
       <c r="E159" s="2">
-        <v>-0.081093</v>
+        <v>-0.081089</v>
       </c>
     </row>
     <row r="160">
@@ -2919,13 +2922,13 @@
         <v>39.5</v>
       </c>
       <c r="B160" s="1">
-        <v>4.926401E7</v>
+        <v>4.9265168E7</v>
       </c>
       <c r="C160" s="1">
-        <v>4.0885528E7</v>
+        <v>4.0886494E7</v>
       </c>
       <c r="E160" s="2">
-        <v>-0.084681</v>
+        <v>-0.084682</v>
       </c>
     </row>
     <row r="161">
@@ -2934,10 +2937,10 @@
         <v>39.75</v>
       </c>
       <c r="B161" s="1">
-        <v>4.9057926E7</v>
+        <v>4.9057552E7</v>
       </c>
       <c r="C161" s="1">
-        <v>4.0768408E7</v>
+        <v>4.076806E7</v>
       </c>
       <c r="E161" s="2">
         <v>-0.086472</v>
@@ -2949,13 +2952,13 @@
         <v>40</v>
       </c>
       <c r="B162" s="1">
-        <v>4.8751068E7</v>
+        <v>4.8750986E7</v>
       </c>
       <c r="C162" s="1">
-        <v>4.0672544E7</v>
+        <v>4.0672452E7</v>
       </c>
       <c r="E162" s="2">
-        <v>-0.090888</v>
+        <v>-0.090887</v>
       </c>
     </row>
     <row r="163">
@@ -2964,13 +2967,13 @@
         <v>40.25</v>
       </c>
       <c r="B163" s="1">
-        <v>4.8447802E7</v>
+        <v>4.8447906E7</v>
       </c>
       <c r="C163" s="1">
-        <v>4.0570696E7</v>
+        <v>4.0570872E7</v>
       </c>
       <c r="E163" s="2">
-        <v>-0.094804</v>
+        <v>-0.094807</v>
       </c>
     </row>
     <row r="164">
@@ -2979,13 +2982,13 @@
         <v>40.5</v>
       </c>
       <c r="B164" s="1">
-        <v>4.8204446E7</v>
+        <v>4.8204742E7</v>
       </c>
       <c r="C164" s="1">
-        <v>4.0517066E7</v>
+        <v>4.0517214E7</v>
       </c>
       <c r="E164" s="2">
-        <v>-0.093283</v>
+        <v>-0.093284</v>
       </c>
     </row>
     <row r="165">
@@ -2994,13 +2997,13 @@
         <v>40.75</v>
       </c>
       <c r="B165" s="1">
-        <v>4.7740122E7</v>
+        <v>4.774038E7</v>
       </c>
       <c r="C165" s="1">
-        <v>4.0420336E7</v>
+        <v>4.0420584E7</v>
       </c>
       <c r="E165" s="2">
-        <v>-0.096602</v>
+        <v>-0.0966</v>
       </c>
     </row>
     <row r="166">
@@ -3009,13 +3012,13 @@
         <v>41</v>
       </c>
       <c r="B166" s="1">
-        <v>4.7281546E7</v>
+        <v>4.7280728E7</v>
       </c>
       <c r="C166" s="1">
-        <v>4.0363376E7</v>
+        <v>4.0362714E7</v>
       </c>
       <c r="E166" s="2">
-        <v>-0.100043</v>
+        <v>-0.100045</v>
       </c>
     </row>
     <row r="167">
@@ -3024,13 +3027,13 @@
         <v>41.25</v>
       </c>
       <c r="B167" s="1">
-        <v>4.6866154E7</v>
+        <v>4.6867212E7</v>
       </c>
       <c r="C167" s="1">
-        <v>4.0277174E7</v>
+        <v>4.027807E7</v>
       </c>
       <c r="E167" s="2">
-        <v>-0.105131</v>
+        <v>-0.10513</v>
       </c>
     </row>
     <row r="168">
@@ -3039,13 +3042,13 @@
         <v>41.5</v>
       </c>
       <c r="B168" s="1">
-        <v>4.6575696E7</v>
+        <v>4.6574542E7</v>
       </c>
       <c r="C168" s="1">
-        <v>4.0167208E7</v>
+        <v>4.0166198E7</v>
       </c>
       <c r="E168" s="2">
-        <v>-0.104939</v>
+        <v>-0.10494</v>
       </c>
     </row>
     <row r="169">
@@ -3054,13 +3057,13 @@
         <v>41.75</v>
       </c>
       <c r="B169" s="1">
-        <v>4.6577248E7</v>
+        <v>4.6577742E7</v>
       </c>
       <c r="C169" s="1">
-        <v>4.0076964E7</v>
+        <v>4.0077384E7</v>
       </c>
       <c r="E169" s="2">
-        <v>-0.096955</v>
+        <v>-0.096957</v>
       </c>
     </row>
     <row r="170">
@@ -3069,10 +3072,10 @@
         <v>42</v>
       </c>
       <c r="B170" s="1">
-        <v>4.6480896E7</v>
+        <v>4.6480088E7</v>
       </c>
       <c r="C170" s="1">
-        <v>3.9989006E7</v>
+        <v>3.9988336E7</v>
       </c>
       <c r="E170" s="2">
         <v>-0.088383</v>
@@ -3084,13 +3087,13 @@
         <v>42.25</v>
       </c>
       <c r="B171" s="1">
-        <v>4.6282756E7</v>
+        <v>4.6283486E7</v>
       </c>
       <c r="C171" s="1">
-        <v>3.9914848E7</v>
+        <v>3.9915436E7</v>
       </c>
       <c r="E171" s="2">
-        <v>-0.08328</v>
+        <v>-0.083279</v>
       </c>
     </row>
     <row r="172">
@@ -3099,13 +3102,13 @@
         <v>42.5</v>
       </c>
       <c r="B172" s="1">
-        <v>4.5948836E7</v>
+        <v>4.5949048E7</v>
       </c>
       <c r="C172" s="1">
-        <v>3.9795698E7</v>
+        <v>3.9795854E7</v>
       </c>
       <c r="E172" s="2">
-        <v>-0.083609</v>
+        <v>-0.08361</v>
       </c>
     </row>
     <row r="173">
@@ -3114,13 +3117,13 @@
         <v>42.75</v>
       </c>
       <c r="B173" s="1">
-        <v>4.580205E7</v>
+        <v>4.5801754E7</v>
       </c>
       <c r="C173" s="1">
-        <v>3.9683706E7</v>
+        <v>3.968346E7</v>
       </c>
       <c r="E173" s="2">
-        <v>-0.074969</v>
+        <v>-0.074965</v>
       </c>
     </row>
     <row r="174">
@@ -3129,13 +3132,13 @@
         <v>43</v>
       </c>
       <c r="B174" s="1">
-        <v>4.5632286E7</v>
+        <v>4.5632302E7</v>
       </c>
       <c r="C174" s="1">
-        <v>3.959726E7</v>
+        <v>3.9597304E7</v>
       </c>
       <c r="E174" s="2">
-        <v>-0.066787</v>
+        <v>-0.066791</v>
       </c>
     </row>
     <row r="175">
@@ -3144,13 +3147,13 @@
         <v>43.25</v>
       </c>
       <c r="B175" s="1">
-        <v>4.527635E7</v>
+        <v>4.5275896E7</v>
       </c>
       <c r="C175" s="1">
-        <v>3.9487242E7</v>
+        <v>3.9486822E7</v>
       </c>
       <c r="E175" s="2">
-        <v>-0.069064</v>
+        <v>-0.069061</v>
       </c>
     </row>
     <row r="176">
@@ -3159,13 +3162,13 @@
         <v>43.5</v>
       </c>
       <c r="B176" s="1">
-        <v>4.5073364E7</v>
+        <v>4.5073992E7</v>
       </c>
       <c r="C176" s="1">
-        <v>3.9386874E7</v>
+        <v>3.9387434E7</v>
       </c>
       <c r="E176" s="2">
-        <v>-0.063991</v>
+        <v>-0.063992</v>
       </c>
     </row>
     <row r="177">
@@ -3174,13 +3177,13 @@
         <v>43.75</v>
       </c>
       <c r="B177" s="1">
-        <v>4.502698E7</v>
+        <v>4.5026974E7</v>
       </c>
       <c r="C177" s="1">
-        <v>3.9281708E7</v>
+        <v>3.9281668E7</v>
       </c>
       <c r="E177" s="2">
-        <v>-0.057885</v>
+        <v>-0.057886</v>
       </c>
     </row>
     <row r="178">
@@ -3189,13 +3192,13 @@
         <v>44</v>
       </c>
       <c r="B178" s="1">
-        <v>4.4930668E7</v>
+        <v>4.4929966E7</v>
       </c>
       <c r="C178" s="1">
-        <v>3.9164494E7</v>
+        <v>3.9163852E7</v>
       </c>
       <c r="E178" s="2">
-        <v>-0.053942</v>
+        <v>-0.053941</v>
       </c>
     </row>
     <row r="179">
@@ -3204,10 +3207,10 @@
         <v>44.25</v>
       </c>
       <c r="B179" s="1">
-        <v>4.4642376E7</v>
+        <v>4.4642764E7</v>
       </c>
       <c r="C179" s="1">
-        <v>3.9051572E7</v>
+        <v>3.9051996E7</v>
       </c>
       <c r="E179" s="2">
         <v>-0.051674</v>
@@ -3219,13 +3222,13 @@
         <v>44.5</v>
       </c>
       <c r="B180" s="1">
-        <v>4.428555E7</v>
+        <v>4.4285132E7</v>
       </c>
       <c r="C180" s="1">
-        <v>3.8918768E7</v>
+        <v>3.891846E7</v>
       </c>
       <c r="E180" s="2">
-        <v>-0.051445</v>
+        <v>-0.051446</v>
       </c>
     </row>
     <row r="181">
@@ -3234,13 +3237,13 @@
         <v>44.75</v>
       </c>
       <c r="B181" s="1">
-        <v>4.4036788E7</v>
+        <v>4.4037448E7</v>
       </c>
       <c r="C181" s="1">
-        <v>3.8798144E7</v>
+        <v>3.8798652E7</v>
       </c>
       <c r="E181" s="2">
-        <v>-0.051787</v>
+        <v>-0.051791</v>
       </c>
     </row>
     <row r="182">
@@ -3249,13 +3252,13 @@
         <v>45</v>
       </c>
       <c r="B182" s="1">
-        <v>4.3796596E7</v>
+        <v>4.3796568E7</v>
       </c>
       <c r="C182" s="1">
-        <v>3.8643744E7</v>
+        <v>3.8643686E7</v>
       </c>
       <c r="E182" s="2">
-        <v>-0.051964</v>
+        <v>-0.051962</v>
       </c>
     </row>
     <row r="183">
@@ -3264,10 +3267,10 @@
         <v>45.25</v>
       </c>
       <c r="B183" s="1">
-        <v>4.3348086E7</v>
+        <v>4.3347232E7</v>
       </c>
       <c r="C183" s="1">
-        <v>3.8469794E7</v>
+        <v>3.8469082E7</v>
       </c>
       <c r="E183" s="2">
         <v>-0.059218</v>
@@ -3279,13 +3282,13 @@
         <v>45.5</v>
       </c>
       <c r="B184" s="1">
-        <v>4.290147E7</v>
+        <v>4.2902474E7</v>
       </c>
       <c r="C184" s="1">
-        <v>3.8333706E7</v>
+        <v>3.8334586E7</v>
       </c>
       <c r="E184" s="2">
-        <v>-0.065199</v>
+        <v>-0.065196</v>
       </c>
     </row>
     <row r="185">
@@ -3294,13 +3297,13 @@
         <v>45.75</v>
       </c>
       <c r="B185" s="1">
-        <v>4.2787366E7</v>
+        <v>4.2787546E7</v>
       </c>
       <c r="C185" s="1">
-        <v>3.8170296E7</v>
+        <v>3.8170476E7</v>
       </c>
       <c r="E185" s="2">
-        <v>-0.062223</v>
+        <v>-0.062224</v>
       </c>
     </row>
     <row r="186">
@@ -3309,13 +3312,13 @@
         <v>46</v>
       </c>
       <c r="B186" s="1">
-        <v>4.26043E7</v>
+        <v>4.2603844E7</v>
       </c>
       <c r="C186" s="1">
-        <v>3.8072902E7</v>
+        <v>3.807246E7</v>
       </c>
       <c r="E186" s="2">
-        <v>-0.059283</v>
+        <v>-0.059281</v>
       </c>
     </row>
     <row r="187">
@@ -3324,13 +3327,13 @@
         <v>46.25</v>
       </c>
       <c r="B187" s="1">
-        <v>4.2510246E7</v>
+        <v>4.2509826E7</v>
       </c>
       <c r="C187" s="1">
-        <v>3.793274E7</v>
+        <v>3.7932368E7</v>
       </c>
       <c r="E187" s="2">
-        <v>-0.057305</v>
+        <v>-0.057306</v>
       </c>
     </row>
     <row r="188">
@@ -3339,10 +3342,10 @@
         <v>46.5</v>
       </c>
       <c r="B188" s="1">
-        <v>4.2170378E7</v>
+        <v>4.2170104E7</v>
       </c>
       <c r="C188" s="1">
-        <v>3.7799352E7</v>
+        <v>3.779907E7</v>
       </c>
       <c r="E188" s="2">
         <v>-0.059324</v>
@@ -3354,13 +3357,13 @@
         <v>46.75</v>
       </c>
       <c r="B189" s="1">
-        <v>4.1659056E7</v>
+        <v>4.1659684E7</v>
       </c>
       <c r="C189" s="1">
-        <v>3.7647608E7</v>
+        <v>3.764815E7</v>
       </c>
       <c r="E189" s="2">
-        <v>-0.063455</v>
+        <v>-0.063458</v>
       </c>
     </row>
     <row r="190">
@@ -3369,13 +3372,13 @@
         <v>47</v>
       </c>
       <c r="B190" s="1">
-        <v>4.0954032E7</v>
+        <v>4.0953948E7</v>
       </c>
       <c r="C190" s="1">
-        <v>3.7496338E7</v>
+        <v>3.749625E7</v>
       </c>
       <c r="E190" s="2">
-        <v>-0.075535</v>
+        <v>-0.075537</v>
       </c>
     </row>
     <row r="191">
@@ -3384,13 +3387,13 @@
         <v>47.25</v>
       </c>
       <c r="B191" s="1">
-        <v>4.037918E7</v>
+        <v>4.037927E7</v>
       </c>
       <c r="C191" s="1">
-        <v>3.7347042E7</v>
+        <v>3.7347234E7</v>
       </c>
       <c r="E191" s="2">
-        <v>-0.081194</v>
+        <v>-0.08119</v>
       </c>
     </row>
     <row r="192">
@@ -3399,13 +3402,13 @@
         <v>47.5</v>
       </c>
       <c r="B192" s="1">
-        <v>3.9918554E7</v>
+        <v>3.9918844E7</v>
       </c>
       <c r="C192" s="1">
-        <v>3.7197158E7</v>
+        <v>3.7197348E7</v>
       </c>
       <c r="E192" s="2">
-        <v>-0.081351</v>
+        <v>-0.081349</v>
       </c>
     </row>
     <row r="193">
@@ -3414,13 +3417,13 @@
         <v>47.75</v>
       </c>
       <c r="B193" s="1">
-        <v>3.9537162E7</v>
+        <v>3.9536818E7</v>
       </c>
       <c r="C193" s="1">
-        <v>3.7079098E7</v>
+        <v>3.7078798E7</v>
       </c>
       <c r="E193" s="2">
-        <v>-0.074672</v>
+        <v>-0.074674</v>
       </c>
     </row>
     <row r="194">
@@ -3429,13 +3432,13 @@
         <v>48</v>
       </c>
       <c r="B194" s="1">
-        <v>3.9047952E7</v>
+        <v>3.9048548E7</v>
       </c>
       <c r="C194" s="1">
-        <v>3.6943286E7</v>
+        <v>3.6943818E7</v>
       </c>
       <c r="E194" s="2">
-        <v>-0.075589</v>
+        <v>-0.075591</v>
       </c>
     </row>
     <row r="195">
@@ -3444,13 +3447,13 @@
         <v>48.25</v>
       </c>
       <c r="B195" s="1">
-        <v>3.8484756E7</v>
+        <v>3.8484174E7</v>
       </c>
       <c r="C195" s="1">
-        <v>3.6798584E7</v>
+        <v>3.679811E7</v>
       </c>
       <c r="E195" s="2">
-        <v>-0.078634</v>
+        <v>-0.07863</v>
       </c>
     </row>
     <row r="196">
@@ -3459,13 +3462,13 @@
         <v>48.5</v>
       </c>
       <c r="B196" s="1">
-        <v>3.789701E7</v>
+        <v>3.7897316E7</v>
       </c>
       <c r="C196" s="1">
-        <v>3.6618956E7</v>
+        <v>3.6619142E7</v>
       </c>
       <c r="E196" s="2">
-        <v>-0.085043</v>
+        <v>-0.085049</v>
       </c>
     </row>
     <row r="197">
@@ -3474,13 +3477,13 @@
         <v>48.75</v>
       </c>
       <c r="B197" s="1">
-        <v>3.7381352E7</v>
+        <v>3.738131E7</v>
       </c>
       <c r="C197" s="1">
-        <v>3.645404E7</v>
+        <v>3.645401E7</v>
       </c>
       <c r="E197" s="2">
-        <v>-0.090415</v>
+        <v>-0.090411</v>
       </c>
     </row>
     <row r="198">
@@ -3489,13 +3492,13 @@
         <v>49</v>
       </c>
       <c r="B198" s="1">
-        <v>3.6886034E7</v>
+        <v>3.6886244E7</v>
       </c>
       <c r="C198" s="1">
-        <v>3.6321136E7</v>
+        <v>3.6321316E7</v>
       </c>
       <c r="E198" s="2">
-        <v>-0.092326</v>
+        <v>-0.092328</v>
       </c>
     </row>
     <row r="199">
@@ -3504,10 +3507,10 @@
         <v>49.25</v>
       </c>
       <c r="B199" s="1">
-        <v>3.6351044E7</v>
+        <v>3.6350276E7</v>
       </c>
       <c r="C199" s="1">
-        <v>3.6173426E7</v>
+        <v>3.6172692E7</v>
       </c>
       <c r="E199" s="2">
         <v>-0.096915</v>
@@ -3519,13 +3522,13 @@
         <v>49.5</v>
       </c>
       <c r="B200" s="1">
-        <v>3.5677266E7</v>
+        <v>3.5677502E7</v>
       </c>
       <c r="C200" s="1">
-        <v>3.6018944E7</v>
+        <v>3.6019346E7</v>
       </c>
       <c r="E200" s="2">
-        <v>-0.105872</v>
+        <v>-0.105871</v>
       </c>
     </row>
     <row r="201">
@@ -3534,10 +3537,10 @@
         <v>49.75</v>
       </c>
       <c r="B201" s="1">
-        <v>3.506046E7</v>
+        <v>3.5061136E7</v>
       </c>
       <c r="C201" s="1">
-        <v>3.5896656E7</v>
+        <v>3.589719E7</v>
       </c>
       <c r="E201" s="2">
         <v>-0.110356</v>
@@ -3549,10 +3552,10 @@
         <v>50</v>
       </c>
       <c r="B202" s="1">
-        <v>3.4647548E7</v>
+        <v>3.4646748E7</v>
       </c>
       <c r="C202" s="1">
-        <v>3.5733884E7</v>
+        <v>3.5733098E7</v>
       </c>
       <c r="E202" s="2">
         <v>-0.111858</v>
@@ -3564,13 +3567,13 @@
         <v>50.25</v>
       </c>
       <c r="B203" s="1">
-        <v>3.4188802E7</v>
+        <v>3.418967E7</v>
       </c>
       <c r="C203" s="1">
-        <v>3.5549824E7</v>
+        <v>3.5550656E7</v>
       </c>
       <c r="E203" s="2">
-        <v>-0.117669</v>
+        <v>-0.117671</v>
       </c>
     </row>
     <row r="204">
@@ -3579,13 +3582,13 @@
         <v>50.5</v>
       </c>
       <c r="B204" s="1">
-        <v>3.373439E7</v>
+        <v>3.3733354E7</v>
       </c>
       <c r="C204" s="1">
-        <v>3.5393594E7</v>
+        <v>3.539257E7</v>
       </c>
       <c r="E204" s="2">
-        <v>-0.123385</v>
+        <v>-0.123381</v>
       </c>
     </row>
     <row r="205">
@@ -3594,10 +3597,10 @@
         <v>50.75</v>
       </c>
       <c r="B205" s="1">
-        <v>3.3268682E7</v>
+        <v>3.3269986E7</v>
       </c>
       <c r="C205" s="1">
-        <v>3.5245602E7</v>
+        <v>3.5246896E7</v>
       </c>
       <c r="E205" s="2">
         <v>-0.128537</v>
@@ -3609,13 +3612,13 @@
         <v>51</v>
       </c>
       <c r="B206" s="1">
-        <v>3.2893364E7</v>
+        <v>3.289284E7</v>
       </c>
       <c r="C206" s="1">
-        <v>3.5085302E7</v>
+        <v>3.5084828E7</v>
       </c>
       <c r="E206" s="2">
-        <v>-0.128534</v>
+        <v>-0.128536</v>
       </c>
     </row>
     <row r="207">
@@ -3624,13 +3627,13 @@
         <v>51.25</v>
       </c>
       <c r="B207" s="1">
-        <v>3.259077E7</v>
+        <v>3.2590384E7</v>
       </c>
       <c r="C207" s="1">
-        <v>3.4899044E7</v>
+        <v>3.4898562E7</v>
       </c>
       <c r="E207" s="2">
-        <v>-0.126461</v>
+        <v>-0.126459</v>
       </c>
     </row>
     <row r="208">
@@ -3639,13 +3642,13 @@
         <v>51.5</v>
       </c>
       <c r="B208" s="1">
-        <v>3.2353966E7</v>
+        <v>3.2354212E7</v>
       </c>
       <c r="C208" s="1">
-        <v>3.4732976E7</v>
+        <v>3.4733228E7</v>
       </c>
       <c r="E208" s="2">
-        <v>-0.127118</v>
+        <v>-0.127115</v>
       </c>
     </row>
     <row r="209">
@@ -3654,13 +3657,13 @@
         <v>51.75</v>
       </c>
       <c r="B209" s="1">
-        <v>3.1934432E7</v>
+        <v>3.193479E7</v>
       </c>
       <c r="C209" s="1">
-        <v>3.457934E7</v>
+        <v>3.4579698E7</v>
       </c>
       <c r="E209" s="2">
-        <v>-0.12742</v>
+        <v>-0.127421</v>
       </c>
     </row>
     <row r="210">
@@ -3669,13 +3672,13 @@
         <v>52</v>
       </c>
       <c r="B210" s="1">
-        <v>3.1583618E7</v>
+        <v>3.1583588E7</v>
       </c>
       <c r="C210" s="1">
-        <v>3.4432966E7</v>
+        <v>3.443294E7</v>
       </c>
       <c r="E210" s="2">
-        <v>-0.125417</v>
+        <v>-0.125418</v>
       </c>
     </row>
     <row r="211">
@@ -3684,13 +3687,13 @@
         <v>52.25</v>
       </c>
       <c r="B211" s="1">
-        <v>3.117114E7</v>
+        <v>3.1170752E7</v>
       </c>
       <c r="C211" s="1">
-        <v>3.4270022E7</v>
+        <v>3.4269694E7</v>
       </c>
       <c r="E211" s="2">
-        <v>-0.130293</v>
+        <v>-0.130296</v>
       </c>
     </row>
     <row r="212">
@@ -3699,13 +3702,13 @@
         <v>52.5</v>
       </c>
       <c r="B212" s="1">
-        <v>3.066346E7</v>
+        <v>3.0663548E7</v>
       </c>
       <c r="C212" s="1">
-        <v>3.4075588E7</v>
+        <v>3.4075616E7</v>
       </c>
       <c r="E212" s="2">
-        <v>-0.137569</v>
+        <v>-0.137562</v>
       </c>
     </row>
     <row r="213">
@@ -3714,13 +3717,13 @@
         <v>52.75</v>
       </c>
       <c r="B213" s="1">
-        <v>3.0196346E7</v>
+        <v>3.0196122E7</v>
       </c>
       <c r="C213" s="1">
-        <v>3.3910172E7</v>
+        <v>3.3910004E7</v>
       </c>
       <c r="E213" s="2">
-        <v>-0.142666</v>
+        <v>-0.142669</v>
       </c>
     </row>
     <row r="214">
@@ -3729,10 +3732,10 @@
         <v>53</v>
       </c>
       <c r="B214" s="1">
-        <v>2.9757522E7</v>
+        <v>2.9757274E7</v>
       </c>
       <c r="C214" s="1">
-        <v>3.3749788E7</v>
+        <v>3.3749338E7</v>
       </c>
       <c r="E214" s="2">
         <v>-0.147023</v>
@@ -3744,13 +3747,13 @@
         <v>53.25</v>
       </c>
       <c r="B215" s="1">
-        <v>2.9400184E7</v>
+        <v>2.9400862E7</v>
       </c>
       <c r="C215" s="1">
-        <v>3.3552948E7</v>
+        <v>3.3553794E7</v>
       </c>
       <c r="E215" s="2">
-        <v>-0.14851</v>
+        <v>-0.148507</v>
       </c>
     </row>
     <row r="216">
@@ -3759,13 +3762,13 @@
         <v>53.5</v>
       </c>
       <c r="B216" s="1">
-        <v>2.8928686E7</v>
+        <v>2.89289E7</v>
       </c>
       <c r="C216" s="1">
-        <v>3.3373466E7</v>
+        <v>3.3373638E7</v>
       </c>
       <c r="E216" s="2">
-        <v>-0.154367</v>
+        <v>-0.154363</v>
       </c>
     </row>
     <row r="217">
@@ -3774,13 +3777,13 @@
         <v>53.75</v>
       </c>
       <c r="B217" s="1">
-        <v>2.847143E7</v>
+        <v>2.8471078E7</v>
       </c>
       <c r="C217" s="1">
-        <v>3.3190944E7</v>
+        <v>3.3190668E7</v>
       </c>
       <c r="E217" s="2">
-        <v>-0.161888</v>
+        <v>-0.161893</v>
       </c>
     </row>
     <row r="218">
@@ -3789,10 +3792,10 @@
         <v>54</v>
       </c>
       <c r="B218" s="1">
-        <v>2.8158852E7</v>
+        <v>2.8159228E7</v>
       </c>
       <c r="C218" s="1">
-        <v>3.3033658E7</v>
+        <v>3.303401E7</v>
       </c>
       <c r="E218" s="2">
         <v>-0.16391</v>
@@ -3804,13 +3807,13 @@
         <v>54.25</v>
       </c>
       <c r="B219" s="1">
-        <v>2.778823E7</v>
+        <v>2.7787726E7</v>
       </c>
       <c r="C219" s="1">
-        <v>3.2850576E7</v>
+        <v>3.2850128E7</v>
       </c>
       <c r="E219" s="2">
-        <v>-0.167628</v>
+        <v>-0.167629</v>
       </c>
     </row>
     <row r="220">
@@ -3819,13 +3822,13 @@
         <v>54.5</v>
       </c>
       <c r="B220" s="1">
-        <v>2.7494628E7</v>
+        <v>2.7494962E7</v>
       </c>
       <c r="C220" s="1">
-        <v>3.2658288E7</v>
+        <v>3.2658588E7</v>
       </c>
       <c r="E220" s="2">
-        <v>-0.1685</v>
+        <v>-0.168497</v>
       </c>
     </row>
     <row r="221">
@@ -3834,13 +3837,13 @@
         <v>54.75</v>
       </c>
       <c r="B221" s="1">
-        <v>2.7005746E7</v>
+        <v>2.7005444E7</v>
       </c>
       <c r="C221" s="1">
-        <v>3.2440902E7</v>
+        <v>3.2440466E7</v>
       </c>
       <c r="E221" s="2">
-        <v>-0.17373</v>
+        <v>-0.173729</v>
       </c>
     </row>
     <row r="222">
@@ -3849,10 +3852,10 @@
         <v>55</v>
       </c>
       <c r="B222" s="1">
-        <v>2.6466104E7</v>
+        <v>2.646614E7</v>
       </c>
       <c r="C222" s="1">
-        <v>3.2279066E7</v>
+        <v>3.2279084E7</v>
       </c>
       <c r="E222" s="2">
         <v>-0.18028</v>
@@ -3864,13 +3867,13 @@
         <v>55.25</v>
       </c>
       <c r="B223" s="1">
-        <v>2.5941366E7</v>
+        <v>2.5941322E7</v>
       </c>
       <c r="C223" s="1">
-        <v>3.2115964E7</v>
+        <v>3.2115948E7</v>
       </c>
       <c r="E223" s="2">
-        <v>-0.181992</v>
+        <v>-0.181995</v>
       </c>
     </row>
     <row r="224">
@@ -3879,13 +3882,13 @@
         <v>55.5</v>
       </c>
       <c r="B224" s="1">
-        <v>2.5457198E7</v>
+        <v>2.5456858E7</v>
       </c>
       <c r="C224" s="1">
-        <v>3.190222E7</v>
+        <v>3.1901708E7</v>
       </c>
       <c r="E224" s="2">
-        <v>-0.183592</v>
+        <v>-0.183591</v>
       </c>
     </row>
     <row r="225">
@@ -3894,10 +3897,10 @@
         <v>55.75</v>
       </c>
       <c r="B225" s="1">
-        <v>2.5104142E7</v>
+        <v>2.5104666E7</v>
       </c>
       <c r="C225" s="1">
-        <v>3.1747834E7</v>
+        <v>3.1748594E7</v>
       </c>
       <c r="E225" s="2">
         <v>-0.182326</v>
@@ -3909,13 +3912,13 @@
         <v>56</v>
       </c>
       <c r="B226" s="1">
-        <v>2.4671586E7</v>
+        <v>2.4671446E7</v>
       </c>
       <c r="C226" s="1">
-        <v>3.15556E7</v>
+        <v>3.1555366E7</v>
       </c>
       <c r="E226" s="2">
-        <v>-0.186196</v>
+        <v>-0.186197</v>
       </c>
     </row>
     <row r="227">
@@ -3924,13 +3927,13 @@
         <v>56.25</v>
       </c>
       <c r="B227" s="1">
-        <v>2.4231358E7</v>
+        <v>2.4231428E7</v>
       </c>
       <c r="C227" s="1">
-        <v>3.1350158E7</v>
+        <v>3.1350292E7</v>
       </c>
       <c r="E227" s="2">
-        <v>-0.193108</v>
+        <v>-0.193109</v>
       </c>
     </row>
     <row r="228">
@@ -3939,13 +3942,13 @@
         <v>56.5</v>
       </c>
       <c r="B228" s="1">
-        <v>2.3772054E7</v>
+        <v>2.3772064E7</v>
       </c>
       <c r="C228" s="1">
         <v>3.1170846E7</v>
       </c>
       <c r="E228" s="2">
-        <v>-0.195023</v>
+        <v>-0.195022</v>
       </c>
     </row>
     <row r="229">
@@ -3954,10 +3957,10 @@
         <v>56.75</v>
       </c>
       <c r="B229" s="1">
-        <v>2.3283408E7</v>
+        <v>2.3283306E7</v>
       </c>
       <c r="C229" s="1">
-        <v>3.0995678E7</v>
+        <v>3.0995542E7</v>
       </c>
       <c r="E229" s="2">
         <v>-0.199009</v>
@@ -3969,13 +3972,13 @@
         <v>57</v>
       </c>
       <c r="B230" s="1">
-        <v>2.285821E7</v>
+        <v>2.2858192E7</v>
       </c>
       <c r="C230" s="1">
-        <v>3.080206E7</v>
+        <v>3.0802032E7</v>
       </c>
       <c r="E230" s="2">
-        <v>-0.20173</v>
+        <v>-0.201729</v>
       </c>
     </row>
     <row r="231">
@@ -3984,13 +3987,13 @@
         <v>57.25</v>
       </c>
       <c r="B231" s="1">
-        <v>2.2460622E7</v>
+        <v>2.2460666E7</v>
       </c>
       <c r="C231" s="1">
-        <v>3.061851E7</v>
+        <v>3.0618418E7</v>
       </c>
       <c r="E231" s="2">
-        <v>-0.204762</v>
+        <v>-0.204763</v>
       </c>
     </row>
     <row r="232">
@@ -3999,10 +4002,10 @@
         <v>57.5</v>
       </c>
       <c r="B232" s="1">
-        <v>2.2066952E7</v>
+        <v>2.2066714E7</v>
       </c>
       <c r="C232" s="1">
-        <v>3.0387534E7</v>
+        <v>3.0387334E7</v>
       </c>
       <c r="E232" s="2">
         <v>-0.208194</v>
@@ -4014,13 +4017,13 @@
         <v>57.75</v>
       </c>
       <c r="B233" s="1">
-        <v>2.1732444E7</v>
+        <v>2.1732418E7</v>
       </c>
       <c r="C233" s="1">
-        <v>3.0169212E7</v>
+        <v>3.0169156E7</v>
       </c>
       <c r="E233" s="2">
-        <v>-0.21084</v>
+        <v>-0.210842</v>
       </c>
     </row>
     <row r="234">
@@ -4029,13 +4032,13 @@
         <v>58</v>
       </c>
       <c r="B234" s="1">
-        <v>2.1390334E7</v>
+        <v>2.1390914E7</v>
       </c>
       <c r="C234" s="1">
-        <v>2.9958366E7</v>
+        <v>2.9959234E7</v>
       </c>
       <c r="E234" s="2">
-        <v>-0.21185</v>
+        <v>-0.211848</v>
       </c>
     </row>
     <row r="235">
@@ -4044,10 +4047,10 @@
         <v>58.25</v>
       </c>
       <c r="B235" s="1">
-        <v>2.1025728E7</v>
+        <v>2.1025604E7</v>
       </c>
       <c r="C235" s="1">
-        <v>2.972448E7</v>
+        <v>2.9724322E7</v>
       </c>
       <c r="E235" s="2">
         <v>-0.216125</v>
@@ -4059,13 +4062,13 @@
         <v>58.5</v>
       </c>
       <c r="B236" s="1">
-        <v>2.0788426E7</v>
+        <v>2.0788336E7</v>
       </c>
       <c r="C236" s="1">
-        <v>2.9517826E7</v>
+        <v>2.9517672E7</v>
       </c>
       <c r="E236" s="2">
-        <v>-0.210643</v>
+        <v>-0.210647</v>
       </c>
     </row>
     <row r="237">
@@ -4074,13 +4077,13 @@
         <v>58.75</v>
       </c>
       <c r="B237" s="1">
-        <v>2.0491068E7</v>
+        <v>2.0490758E7</v>
       </c>
       <c r="C237" s="1">
-        <v>2.9329158E7</v>
+        <v>2.9328704E7</v>
       </c>
       <c r="E237" s="2">
-        <v>-0.206417</v>
+        <v>-0.206414</v>
       </c>
     </row>
     <row r="238">
@@ -4089,13 +4092,13 @@
         <v>59</v>
       </c>
       <c r="B238" s="1">
-        <v>2.0172644E7</v>
+        <v>2.0172826E7</v>
       </c>
       <c r="C238" s="1">
-        <v>2.9114982E7</v>
+        <v>2.9115174E7</v>
       </c>
       <c r="E238" s="2">
-        <v>-0.206682</v>
+        <v>-0.206685</v>
       </c>
     </row>
     <row r="239">
@@ -4104,13 +4107,13 @@
         <v>59.25</v>
       </c>
       <c r="B239" s="1">
-        <v>1.986476E7</v>
+        <v>1.9864854E7</v>
       </c>
       <c r="C239" s="1">
-        <v>2.887159E7</v>
+        <v>2.88717E7</v>
       </c>
       <c r="E239" s="2">
-        <v>-0.205358</v>
+        <v>-0.205354</v>
       </c>
     </row>
     <row r="240">
@@ -4119,13 +4122,13 @@
         <v>59.5</v>
       </c>
       <c r="B240" s="1">
-        <v>1.9606472E7</v>
+        <v>1.9606152E7</v>
       </c>
       <c r="C240" s="1">
-        <v>2.8674144E7</v>
+        <v>2.8673756E7</v>
       </c>
       <c r="E240" s="2">
-        <v>-0.205452</v>
+        <v>-0.205454</v>
       </c>
     </row>
     <row r="241">
@@ -4134,13 +4137,13 @@
         <v>59.75</v>
       </c>
       <c r="B241" s="1">
-        <v>1.934081E7</v>
+        <v>1.934088E7</v>
       </c>
       <c r="C241" s="1">
-        <v>2.8462948E7</v>
+        <v>2.8463056E7</v>
       </c>
       <c r="E241" s="2">
-        <v>-0.206963</v>
+        <v>-0.206965</v>
       </c>
     </row>
     <row r="242">
@@ -4149,13 +4152,13 @@
         <v>60</v>
       </c>
       <c r="B242" s="1">
-        <v>1.902032E7</v>
+        <v>1.9020146E7</v>
       </c>
       <c r="C242" s="1">
-        <v>2.826144E7</v>
+        <v>2.8261058E7</v>
       </c>
       <c r="E242" s="2">
-        <v>-0.208298</v>
+        <v>-0.208294</v>
       </c>
     </row>
     <row r="243">
@@ -4164,13 +4167,13 @@
         <v>60.25</v>
       </c>
       <c r="B243" s="1">
-        <v>1.8666444E7</v>
+        <v>1.866637E7</v>
       </c>
       <c r="C243" s="1">
-        <v>2.80457E7</v>
+        <v>2.804581E7</v>
       </c>
       <c r="E243" s="2">
-        <v>-0.211175</v>
+        <v>-0.211173</v>
       </c>
     </row>
     <row r="244">
@@ -4179,13 +4182,13 @@
         <v>60.5</v>
       </c>
       <c r="B244" s="1">
-        <v>1.8296644E7</v>
+        <v>1.8297354E7</v>
       </c>
       <c r="C244" s="1">
-        <v>2.7850438E7</v>
+        <v>2.7851354E7</v>
       </c>
       <c r="E244" s="2">
-        <v>-0.215308</v>
+        <v>-0.215306</v>
       </c>
     </row>
     <row r="245">
@@ -4194,13 +4197,13 @@
         <v>60.75</v>
       </c>
       <c r="B245" s="1">
-        <v>1.8052134E7</v>
+        <v>1.805196E7</v>
       </c>
       <c r="C245" s="1">
-        <v>2.766257E7</v>
+        <v>2.7662352E7</v>
       </c>
       <c r="E245" s="2">
-        <v>-0.213358</v>
+        <v>-0.213365</v>
       </c>
     </row>
     <row r="246">
@@ -4209,13 +4212,13 @@
         <v>61</v>
       </c>
       <c r="B246" s="1">
-        <v>1.7814796E7</v>
+        <v>1.7814764E7</v>
       </c>
       <c r="C246" s="1">
-        <v>2.746228E7</v>
+        <v>2.7462188E7</v>
       </c>
       <c r="E246" s="2">
-        <v>-0.210224</v>
+        <v>-0.21022</v>
       </c>
     </row>
     <row r="247">
@@ -4224,13 +4227,13 @@
         <v>61.25</v>
       </c>
       <c r="B247" s="1">
-        <v>1.7576408E7</v>
+        <v>1.7576158E7</v>
       </c>
       <c r="C247" s="1">
-        <v>2.7261166E7</v>
+        <v>2.7260786E7</v>
       </c>
       <c r="E247" s="2">
-        <v>-0.209513</v>
+        <v>-0.209514</v>
       </c>
     </row>
     <row r="248">
@@ -4239,13 +4242,13 @@
         <v>61.5</v>
       </c>
       <c r="B248" s="1">
-        <v>1.7333984E7</v>
+        <v>1.7333954E7</v>
       </c>
       <c r="C248" s="1">
-        <v>2.7053612E7</v>
+        <v>2.7053542E7</v>
       </c>
       <c r="E248" s="2">
-        <v>-0.209315</v>
+        <v>-0.209311</v>
       </c>
     </row>
     <row r="249">
@@ -4254,13 +4257,13 @@
         <v>61.75</v>
       </c>
       <c r="B249" s="1">
-        <v>1.711434E7</v>
+        <v>1.7114578E7</v>
       </c>
       <c r="C249" s="1">
-        <v>2.6862402E7</v>
+        <v>2.6862798E7</v>
       </c>
       <c r="E249" s="2">
-        <v>-0.20895</v>
+        <v>-0.208955</v>
       </c>
     </row>
     <row r="250">
@@ -4269,13 +4272,13 @@
         <v>62</v>
       </c>
       <c r="B250" s="1">
-        <v>1.6884688E7</v>
+        <v>1.688462E7</v>
       </c>
       <c r="C250" s="1">
-        <v>2.663691E7</v>
+        <v>2.6636758E7</v>
       </c>
       <c r="E250" s="2">
-        <v>-0.211602</v>
+        <v>-0.211599</v>
       </c>
     </row>
     <row r="251">
@@ -4284,10 +4287,10 @@
         <v>62.25</v>
       </c>
       <c r="B251" s="1">
-        <v>1.6628154E7</v>
+        <v>1.6628098E7</v>
       </c>
       <c r="C251" s="1">
-        <v>2.645453E7</v>
+        <v>2.6454468E7</v>
       </c>
       <c r="E251" s="2">
         <v>-0.211512</v>
@@ -4299,13 +4302,13 @@
         <v>62.5</v>
       </c>
       <c r="B252" s="1">
-        <v>1.6282282E7</v>
+        <v>1.6282214E7</v>
       </c>
       <c r="C252" s="1">
-        <v>2.6247342E7</v>
+        <v>2.6247302E7</v>
       </c>
       <c r="E252" s="2">
-        <v>-0.216746</v>
+        <v>-0.216748</v>
       </c>
     </row>
     <row r="253">
@@ -4314,13 +4317,13 @@
         <v>62.75</v>
       </c>
       <c r="B253" s="1">
-        <v>1.5892542E7</v>
+        <v>1.5892486E7</v>
       </c>
       <c r="C253" s="1">
-        <v>2.6015046E7</v>
+        <v>2.60149E7</v>
       </c>
       <c r="E253" s="2">
-        <v>-0.222411</v>
+        <v>-0.222404</v>
       </c>
     </row>
     <row r="254">
@@ -4329,13 +4332,13 @@
         <v>63</v>
       </c>
       <c r="B254" s="1">
-        <v>1.5699308E7</v>
+        <v>1.56997E7</v>
       </c>
       <c r="C254" s="1">
-        <v>2.5811796E7</v>
+        <v>2.5812418E7</v>
       </c>
       <c r="E254" s="2">
-        <v>-0.218306</v>
+        <v>-0.218312</v>
       </c>
     </row>
     <row r="255">
@@ -4344,10 +4347,10 @@
         <v>63.25</v>
       </c>
       <c r="B255" s="1">
-        <v>1.5592086E7</v>
+        <v>1.5592054E7</v>
       </c>
       <c r="C255" s="1">
-        <v>2.5598062E7</v>
+        <v>2.5597986E7</v>
       </c>
       <c r="E255" s="2">
         <v>-0.211659</v>
@@ -4359,10 +4362,10 @@
         <v>63.5</v>
       </c>
       <c r="B256" s="1">
-        <v>1.5344736E7</v>
+        <v>1.5344692E7</v>
       </c>
       <c r="C256" s="1">
-        <v>2.5386916E7</v>
+        <v>2.5386848E7</v>
       </c>
       <c r="E256" s="2">
         <v>-0.212361</v>
@@ -4374,13 +4377,13 @@
         <v>63.75</v>
       </c>
       <c r="B257" s="1">
-        <v>1.5049382E7</v>
+        <v>1.5049262E7</v>
       </c>
       <c r="C257" s="1">
-        <v>2.5201282E7</v>
+        <v>2.5201116E7</v>
       </c>
       <c r="E257" s="2">
-        <v>-0.213862</v>
+        <v>-0.213861</v>
       </c>
     </row>
     <row r="258">
@@ -4389,13 +4392,13 @@
         <v>64</v>
       </c>
       <c r="B258" s="1">
-        <v>1.4807284E7</v>
+        <v>1.4807144E7</v>
       </c>
       <c r="C258" s="1">
-        <v>2.498647E7</v>
+        <v>2.4986266E7</v>
       </c>
       <c r="E258" s="2">
-        <v>-0.216353</v>
+        <v>-0.216357</v>
       </c>
     </row>
     <row r="259">
@@ -4404,13 +4407,13 @@
         <v>64.25</v>
       </c>
       <c r="B259" s="1">
-        <v>1.4526544E7</v>
+        <v>1.4526554E7</v>
       </c>
       <c r="C259" s="1">
-        <v>2.479092E7</v>
+        <v>2.47909E7</v>
       </c>
       <c r="E259" s="2">
-        <v>-0.216993</v>
+        <v>-0.216982</v>
       </c>
     </row>
     <row r="260">
@@ -4419,13 +4422,13 @@
         <v>64.5</v>
       </c>
       <c r="B260" s="1">
-        <v>1.4355962E7</v>
+        <v>1.4356068E7</v>
       </c>
       <c r="C260" s="1">
-        <v>2.4558784E7</v>
+        <v>2.4558992E7</v>
       </c>
       <c r="E260" s="2">
-        <v>-0.215458</v>
+        <v>-0.215469</v>
       </c>
     </row>
     <row r="261">
@@ -4434,13 +4437,13 @@
         <v>64.75</v>
       </c>
       <c r="B261" s="1">
-        <v>1.412497E7</v>
+        <v>1.4125032E7</v>
       </c>
       <c r="C261" s="1">
-        <v>2.4330184E7</v>
+        <v>2.4330216E7</v>
       </c>
       <c r="E261" s="2">
-        <v>-0.218873</v>
+        <v>-0.218869</v>
       </c>
     </row>
     <row r="262">
@@ -4449,13 +4452,13 @@
         <v>65</v>
       </c>
       <c r="B262" s="1">
-        <v>1.3883006E7</v>
+        <v>1.3882892E7</v>
       </c>
       <c r="C262" s="1">
-        <v>2.4121996E7</v>
+        <v>2.4121812E7</v>
       </c>
       <c r="E262" s="2">
-        <v>-0.221187</v>
+        <v>-0.221185</v>
       </c>
     </row>
     <row r="263">
@@ -4464,13 +4467,13 @@
         <v>65.25</v>
       </c>
       <c r="B263" s="1">
-        <v>1.3616846E7</v>
+        <v>1.361678E7</v>
       </c>
       <c r="C263" s="1">
-        <v>2.389738E7</v>
+        <v>2.3897278E7</v>
       </c>
       <c r="E263" s="2">
-        <v>-0.226986</v>
+        <v>-0.226989</v>
       </c>
     </row>
     <row r="264">
@@ -4479,13 +4482,13 @@
         <v>65.5</v>
       </c>
       <c r="B264" s="1">
-        <v>1.3363104E7</v>
+        <v>1.336307E7</v>
       </c>
       <c r="C264" s="1">
-        <v>2.3691102E7</v>
+        <v>2.3691068E7</v>
       </c>
       <c r="E264" s="2">
-        <v>-0.230613</v>
+        <v>-0.230612</v>
       </c>
     </row>
     <row r="265">
@@ -4494,10 +4497,10 @@
         <v>65.75</v>
       </c>
       <c r="B265" s="1">
-        <v>1.3153514E7</v>
+        <v>1.3153864E7</v>
       </c>
       <c r="C265" s="1">
-        <v>2.3461474E7</v>
+        <v>2.3462018E7</v>
       </c>
       <c r="E265" s="2">
         <v>-0.232617</v>
@@ -4509,13 +4512,13 @@
         <v>66</v>
       </c>
       <c r="B266" s="1">
-        <v>1.2933792E7</v>
+        <v>1.2933728E7</v>
       </c>
       <c r="C266" s="1">
-        <v>2.32413E7</v>
+        <v>2.324122E7</v>
       </c>
       <c r="E266" s="2">
-        <v>-0.230856</v>
+        <v>-0.230857</v>
       </c>
     </row>
     <row r="267">
@@ -4524,10 +4527,10 @@
         <v>66.25</v>
       </c>
       <c r="B267" s="1">
-        <v>1.2705994E7</v>
+        <v>1.2705914E7</v>
       </c>
       <c r="C267" s="1">
-        <v>2.2984842E7</v>
+        <v>2.2984658E7</v>
       </c>
       <c r="E267" s="2">
         <v>-0.233637</v>
@@ -4539,13 +4542,13 @@
         <v>66.5</v>
       </c>
       <c r="B268" s="1">
-        <v>1.2461772E7</v>
+        <v>1.2461692E7</v>
       </c>
       <c r="C268" s="1">
-        <v>2.2734694E7</v>
+        <v>2.2734638E7</v>
       </c>
       <c r="E268" s="2">
-        <v>-0.235659</v>
+        <v>-0.235653</v>
       </c>
     </row>
     <row r="269">
@@ -4554,13 +4557,13 @@
         <v>66.75</v>
       </c>
       <c r="B269" s="1">
-        <v>1.2193406E7</v>
+        <v>1.2193664E7</v>
       </c>
       <c r="C269" s="1">
-        <v>2.2476092E7</v>
+        <v>2.247644E7</v>
       </c>
       <c r="E269" s="2">
-        <v>-0.23771</v>
+        <v>-0.237712</v>
       </c>
     </row>
     <row r="270">
@@ -4569,13 +4572,13 @@
         <v>67</v>
       </c>
       <c r="B270" s="1">
-        <v>1.1937194E7</v>
+        <v>1.1937056E7</v>
       </c>
       <c r="C270" s="1">
-        <v>2.2209648E7</v>
+        <v>2.220945E7</v>
       </c>
       <c r="E270" s="2">
-        <v>-0.235949</v>
+        <v>-0.23595</v>
       </c>
     </row>
     <row r="271">
@@ -4584,10 +4587,10 @@
         <v>67.25</v>
       </c>
       <c r="B271" s="1">
-        <v>1.1658428E7</v>
+        <v>1.1658398E7</v>
       </c>
       <c r="C271" s="1">
-        <v>2.1940472E7</v>
+        <v>2.194034E7</v>
       </c>
       <c r="E271" s="2">
         <v>-0.240952</v>
@@ -4599,13 +4602,13 @@
         <v>67.5</v>
       </c>
       <c r="B272" s="1">
-        <v>1.137291E7</v>
+        <v>1.1372822E7</v>
       </c>
       <c r="C272" s="1">
-        <v>2.1692458E7</v>
+        <v>2.1692316E7</v>
       </c>
       <c r="E272" s="2">
-        <v>-0.245153</v>
+        <v>-0.245154</v>
       </c>
     </row>
     <row r="273">
@@ -4614,13 +4617,13 @@
         <v>67.75</v>
       </c>
       <c r="B273" s="1">
-        <v>1.12059E7</v>
+        <v>1.1205836E7</v>
       </c>
       <c r="C273" s="1">
-        <v>2.145915E7</v>
+        <v>2.145903E7</v>
       </c>
       <c r="E273" s="2">
-        <v>-0.244875</v>
+        <v>-0.244879</v>
       </c>
     </row>
     <row r="274">
@@ -4629,13 +4632,13 @@
         <v>68</v>
       </c>
       <c r="B274" s="1">
-        <v>1.0947982E7</v>
+        <v>1.0948328E7</v>
       </c>
       <c r="C274" s="1">
-        <v>2.1236884E7</v>
+        <v>2.123754E7</v>
       </c>
       <c r="E274" s="2">
-        <v>-0.249413</v>
+        <v>-0.249409</v>
       </c>
     </row>
     <row r="275">
@@ -4644,13 +4647,13 @@
         <v>68.25</v>
       </c>
       <c r="B275" s="1">
-        <v>1.0693046E7</v>
+        <v>1.0692958E7</v>
       </c>
       <c r="C275" s="1">
-        <v>2.0987098E7</v>
+        <v>2.0986976E7</v>
       </c>
       <c r="E275" s="2">
-        <v>-0.252832</v>
+        <v>-0.25283</v>
       </c>
     </row>
     <row r="276">
@@ -4659,13 +4662,13 @@
         <v>68.5</v>
       </c>
       <c r="B276" s="1">
-        <v>1.0462666E7</v>
+        <v>1.0462606E7</v>
       </c>
       <c r="C276" s="1">
-        <v>2.0769276E7</v>
+        <v>2.0769154E7</v>
       </c>
       <c r="E276" s="2">
-        <v>-0.248327</v>
+        <v>-0.248326</v>
       </c>
     </row>
     <row r="277">
@@ -4677,10 +4680,10 @@
         <v>1.0299394E7</v>
       </c>
       <c r="C277" s="1">
-        <v>2.0512496E7</v>
+        <v>2.0512462E7</v>
       </c>
       <c r="E277" s="2">
-        <v>-0.244516</v>
+        <v>-0.24451</v>
       </c>
     </row>
     <row r="278">
@@ -4689,13 +4692,13 @@
         <v>69</v>
       </c>
       <c r="B278" s="1">
-        <v>1.011853E7</v>
+        <v>1.0118472E7</v>
       </c>
       <c r="C278" s="1">
-        <v>2.0295272E7</v>
+        <v>2.029512E7</v>
       </c>
       <c r="E278" s="2">
-        <v>-0.236218</v>
+        <v>-0.236226</v>
       </c>
     </row>
     <row r="279">
@@ -4704,13 +4707,13 @@
         <v>69.25</v>
       </c>
       <c r="B279" s="1">
-        <v>9862368.0</v>
+        <v>9862464.0</v>
       </c>
       <c r="C279" s="1">
-        <v>2.0072696E7</v>
+        <v>2.00729E7</v>
       </c>
       <c r="E279" s="2">
-        <v>-0.228497</v>
+        <v>-0.228499</v>
       </c>
     </row>
     <row r="280">
@@ -4719,13 +4722,13 @@
         <v>69.5</v>
       </c>
       <c r="B280" s="1">
-        <v>9537590.0</v>
+        <v>9537572.0</v>
       </c>
       <c r="C280" s="1">
-        <v>1.9859734E7</v>
+        <v>1.9859636E7</v>
       </c>
       <c r="E280" s="2">
-        <v>-0.224291</v>
+        <v>-0.224292</v>
       </c>
     </row>
     <row r="281">
@@ -4734,13 +4737,13 @@
         <v>69.75</v>
       </c>
       <c r="B281" s="1">
-        <v>9244942.0</v>
+        <v>9244936.0</v>
       </c>
       <c r="C281" s="1">
-        <v>1.963124E7</v>
+        <v>1.9631218E7</v>
       </c>
       <c r="E281" s="2">
-        <v>-0.222074</v>
+        <v>-0.222068</v>
       </c>
     </row>
     <row r="282">
@@ -4749,13 +4752,13 @@
         <v>70</v>
       </c>
       <c r="B282" s="1">
-        <v>9023546.0</v>
+        <v>9023464.0</v>
       </c>
       <c r="C282" s="1">
-        <v>1.9377846E7</v>
+        <v>1.9377624E7</v>
       </c>
       <c r="E282" s="2">
-        <v>-0.222635</v>
+        <v>-0.22264</v>
       </c>
     </row>
     <row r="283">
@@ -4764,10 +4767,10 @@
         <v>70.25</v>
       </c>
       <c r="B283" s="1">
-        <v>8897642.0</v>
+        <v>8897590.0</v>
       </c>
       <c r="C283" s="1">
-        <v>1.9133536E7</v>
+        <v>1.9133454E7</v>
       </c>
       <c r="E283" s="2">
         <v>-0.219728</v>
@@ -4779,13 +4782,13 @@
         <v>70.5</v>
       </c>
       <c r="B284" s="1">
-        <v>8702756.0</v>
+        <v>8702988.0</v>
       </c>
       <c r="C284" s="1">
-        <v>1.8908098E7</v>
+        <v>1.8908674E7</v>
       </c>
       <c r="E284" s="2">
-        <v>-0.21574</v>
+        <v>-0.215737</v>
       </c>
     </row>
     <row r="285">
@@ -4794,13 +4797,13 @@
         <v>70.75</v>
       </c>
       <c r="B285" s="1">
-        <v>8501556.0</v>
+        <v>8501552.0</v>
       </c>
       <c r="C285" s="1">
-        <v>1.8666248E7</v>
+        <v>1.8666196E7</v>
       </c>
       <c r="E285" s="2">
-        <v>-0.212217</v>
+        <v>-0.212222</v>
       </c>
     </row>
     <row r="286">
@@ -4809,13 +4812,13 @@
         <v>71</v>
       </c>
       <c r="B286" s="1">
-        <v>8395054.0</v>
+        <v>8395040.0</v>
       </c>
       <c r="C286" s="1">
-        <v>1.8442512E7</v>
+        <v>1.844248E7</v>
       </c>
       <c r="E286" s="2">
-        <v>-0.206769</v>
+        <v>-0.206761</v>
       </c>
     </row>
     <row r="287">
@@ -4824,13 +4827,13 @@
         <v>71.25</v>
       </c>
       <c r="B287" s="1">
-        <v>8221870.0</v>
+        <v>8221764.0</v>
       </c>
       <c r="C287" s="1">
-        <v>1.8222448E7</v>
+        <v>1.8222252E7</v>
       </c>
       <c r="E287" s="2">
-        <v>-0.209167</v>
+        <v>-0.209174</v>
       </c>
     </row>
     <row r="288">
@@ -4842,10 +4845,10 @@
         <v>8068836.0</v>
       </c>
       <c r="C288" s="1">
-        <v>1.7950102E7</v>
+        <v>1.7949932E7</v>
       </c>
       <c r="E288" s="2">
-        <v>-0.21352</v>
+        <v>-0.213518</v>
       </c>
     </row>
     <row r="289">
@@ -4854,13 +4857,13 @@
         <v>71.75</v>
       </c>
       <c r="B289" s="1">
-        <v>7928784.0</v>
+        <v>7928872.0</v>
       </c>
       <c r="C289" s="1">
-        <v>1.7713714E7</v>
+        <v>1.7714036E7</v>
       </c>
       <c r="E289" s="2">
-        <v>-0.211209</v>
+        <v>-0.211206</v>
       </c>
     </row>
     <row r="290">
@@ -4869,13 +4872,13 @@
         <v>72</v>
       </c>
       <c r="B290" s="1">
-        <v>7799056.0</v>
+        <v>7798976.0</v>
       </c>
       <c r="C290" s="1">
-        <v>1.7462054E7</v>
+        <v>1.7461888E7</v>
       </c>
       <c r="E290" s="2">
-        <v>-0.208762</v>
+        <v>-0.208768</v>
       </c>
     </row>
     <row r="291">
@@ -4884,13 +4887,13 @@
         <v>72.25</v>
       </c>
       <c r="B291" s="1">
-        <v>7664626.0</v>
+        <v>7664646.0</v>
       </c>
       <c r="C291" s="1">
-        <v>1.7223622E7</v>
+        <v>1.7223624E7</v>
       </c>
       <c r="E291" s="2">
-        <v>-0.204738</v>
+        <v>-0.204736</v>
       </c>
     </row>
     <row r="292">
@@ -4899,13 +4902,13 @@
         <v>72.5</v>
       </c>
       <c r="B292" s="1">
-        <v>7534932.0</v>
+        <v>7534842.0</v>
       </c>
       <c r="C292" s="1">
-        <v>1.6972784E7</v>
+        <v>1.697268E7</v>
       </c>
       <c r="E292" s="2">
-        <v>-0.198411</v>
+        <v>-0.198408</v>
       </c>
     </row>
     <row r="293">
@@ -4914,13 +4917,13 @@
         <v>72.75</v>
       </c>
       <c r="B293" s="1">
-        <v>7409946.0</v>
+        <v>7409950.0</v>
       </c>
       <c r="C293" s="1">
-        <v>1.6733548E7</v>
+        <v>1.6733478E7</v>
       </c>
       <c r="E293" s="2">
-        <v>-0.185358</v>
+        <v>-0.185357</v>
       </c>
     </row>
     <row r="294">
@@ -4929,13 +4932,13 @@
         <v>73</v>
       </c>
       <c r="B294" s="1">
-        <v>7251410.0</v>
+        <v>7251596.0</v>
       </c>
       <c r="C294" s="1">
-        <v>1.6493028E7</v>
+        <v>1.6493382E7</v>
       </c>
       <c r="E294" s="2">
-        <v>-0.177147</v>
+        <v>-0.177156</v>
       </c>
     </row>
     <row r="295">
@@ -4944,13 +4947,13 @@
         <v>73.25</v>
       </c>
       <c r="B295" s="1">
-        <v>7020596.0</v>
+        <v>7020554.0</v>
       </c>
       <c r="C295" s="1">
-        <v>1.6245468E7</v>
+        <v>1.6245472E7</v>
       </c>
       <c r="E295" s="2">
-        <v>-0.176587</v>
+        <v>-0.176586</v>
       </c>
     </row>
     <row r="296">
@@ -4959,13 +4962,13 @@
         <v>73.5</v>
       </c>
       <c r="B296" s="1">
-        <v>6747820.0</v>
+        <v>6747810.0</v>
       </c>
       <c r="C296" s="1">
-        <v>1.6016042E7</v>
+        <v>1.601598E7</v>
       </c>
       <c r="E296" s="2">
-        <v>-0.176488</v>
+        <v>-0.17648</v>
       </c>
     </row>
     <row r="297">
@@ -4974,13 +4977,13 @@
         <v>73.75</v>
       </c>
       <c r="B297" s="1">
-        <v>6481770.0</v>
+        <v>6481738.0</v>
       </c>
       <c r="C297" s="1">
-        <v>1.5800536E7</v>
+        <v>1.5800418E7</v>
       </c>
       <c r="E297" s="2">
-        <v>-0.171594</v>
+        <v>-0.171595</v>
       </c>
     </row>
     <row r="298">
@@ -4989,13 +4992,13 @@
         <v>74</v>
       </c>
       <c r="B298" s="1">
-        <v>6253570.0</v>
+        <v>6253682.0</v>
       </c>
       <c r="C298" s="1">
-        <v>1.555781E7</v>
+        <v>1.5558052E7</v>
       </c>
       <c r="E298" s="2">
-        <v>-0.167552</v>
+        <v>-0.16756</v>
       </c>
     </row>
     <row r="299">
@@ -5004,13 +5007,13 @@
         <v>74.25</v>
       </c>
       <c r="B299" s="1">
-        <v>6083312.0</v>
+        <v>6083258.0</v>
       </c>
       <c r="C299" s="1">
-        <v>1.5326322E7</v>
+        <v>1.5326228E7</v>
       </c>
       <c r="E299" s="2">
-        <v>-0.158685</v>
+        <v>-0.158676</v>
       </c>
     </row>
     <row r="300">
@@ -5019,13 +5022,13 @@
         <v>74.5</v>
       </c>
       <c r="B300" s="1">
-        <v>5943106.0</v>
+        <v>5943034.0</v>
       </c>
       <c r="C300" s="1">
-        <v>1.5104738E7</v>
+        <v>1.5104724E7</v>
       </c>
       <c r="E300" s="2">
-        <v>-0.141627</v>
+        <v>-0.141626</v>
       </c>
     </row>
     <row r="301">
@@ -5034,13 +5037,13 @@
         <v>74.75</v>
       </c>
       <c r="B301" s="1">
-        <v>5773794.0</v>
+        <v>5773850.0</v>
       </c>
       <c r="C301" s="1">
-        <v>1.4838866E7</v>
+        <v>1.4838782E7</v>
       </c>
       <c r="E301" s="2">
-        <v>-0.132292</v>
+        <v>-0.132297</v>
       </c>
     </row>
     <row r="302">
@@ -5049,13 +5052,13 @@
         <v>75</v>
       </c>
       <c r="B302" s="1">
-        <v>5628220.0</v>
+        <v>5628148.0</v>
       </c>
       <c r="C302" s="1">
-        <v>1.4559562E7</v>
+        <v>1.4559474E7</v>
       </c>
       <c r="E302" s="2">
-        <v>-0.129519</v>
+        <v>-0.129521</v>
       </c>
     </row>
     <row r="303">
@@ -5064,13 +5067,13 @@
         <v>75.25</v>
       </c>
       <c r="B303" s="1">
-        <v>5442932.0</v>
+        <v>5443096.0</v>
       </c>
       <c r="C303" s="1">
-        <v>1.4315916E7</v>
+        <v>1.4316314E7</v>
       </c>
       <c r="E303" s="2">
-        <v>-0.128096</v>
+        <v>-0.128092</v>
       </c>
     </row>
     <row r="304">
@@ -5079,13 +5082,13 @@
         <v>75.5</v>
       </c>
       <c r="B304" s="1">
-        <v>5260236.0</v>
+        <v>5260208.0</v>
       </c>
       <c r="C304" s="1">
-        <v>1.4054292E7</v>
+        <v>1.405416E7</v>
       </c>
       <c r="E304" s="2">
-        <v>-0.128926</v>
+        <v>-0.128928</v>
       </c>
     </row>
     <row r="305">
@@ -5094,13 +5097,13 @@
         <v>75.75</v>
       </c>
       <c r="B305" s="1">
-        <v>5036274.0</v>
+        <v>5036242.0</v>
       </c>
       <c r="C305" s="1">
-        <v>1.3785174E7</v>
+        <v>1.3785114E7</v>
       </c>
       <c r="E305" s="2">
-        <v>-0.131164</v>
+        <v>-0.131167</v>
       </c>
     </row>
     <row r="306">
@@ -5109,13 +5112,13 @@
         <v>76</v>
       </c>
       <c r="B306" s="1">
-        <v>4799962.0</v>
+        <v>4799950.0</v>
       </c>
       <c r="C306" s="1">
-        <v>1.354604E7</v>
+        <v>1.354598E7</v>
       </c>
       <c r="E306" s="2">
-        <v>-0.128375</v>
+        <v>-0.128374</v>
       </c>
     </row>
     <row r="307">
@@ -5124,10 +5127,10 @@
         <v>76.25</v>
       </c>
       <c r="B307" s="1">
-        <v>4630608.0</v>
+        <v>4630568.0</v>
       </c>
       <c r="C307" s="1">
-        <v>1.3277662E7</v>
+        <v>1.3277596E7</v>
       </c>
       <c r="E307" s="2">
         <v>-0.111462</v>
@@ -5139,13 +5142,13 @@
         <v>76.5</v>
       </c>
       <c r="B308" s="1">
-        <v>4505976.0</v>
+        <v>4506096.0</v>
       </c>
       <c r="C308" s="1">
-        <v>1.303091E7</v>
+        <v>1.3031196E7</v>
       </c>
       <c r="E308" s="2">
-        <v>-0.082159</v>
+        <v>-0.08216</v>
       </c>
     </row>
     <row r="309">
@@ -5154,13 +5157,13 @@
         <v>76.75</v>
       </c>
       <c r="B309" s="1">
-        <v>4352172.0</v>
+        <v>4352148.0</v>
       </c>
       <c r="C309" s="1">
-        <v>1.2814214E7</v>
+        <v>1.2814144E7</v>
       </c>
       <c r="E309" s="2">
-        <v>-0.059656</v>
+        <v>-0.059652</v>
       </c>
     </row>
     <row r="310">
@@ -5169,13 +5172,13 @@
         <v>77</v>
       </c>
       <c r="B310" s="1">
-        <v>4244298.0</v>
+        <v>4244226.0</v>
       </c>
       <c r="C310" s="1">
-        <v>1.2566666E7</v>
+        <v>1.2566582E7</v>
       </c>
       <c r="E310" s="2">
-        <v>-0.043076</v>
+        <v>-0.043081</v>
       </c>
     </row>
     <row r="311">
@@ -5184,13 +5187,13 @@
         <v>77.25</v>
       </c>
       <c r="B311" s="1">
-        <v>4169292.0</v>
+        <v>4169290.0</v>
       </c>
       <c r="C311" s="1">
-        <v>1.2308686E7</v>
+        <v>1.2308564E7</v>
       </c>
       <c r="E311" s="2">
-        <v>-0.029939</v>
+        <v>-0.029948</v>
       </c>
     </row>
     <row r="312">
@@ -5199,13 +5202,13 @@
         <v>77.5</v>
       </c>
       <c r="B312" s="1">
-        <v>4052366.0</v>
+        <v>4052368.0</v>
       </c>
       <c r="C312" s="1">
-        <v>1.2039658E7</v>
+        <v>1.2039678E7</v>
       </c>
       <c r="E312" s="2">
-        <v>-0.021454</v>
+        <v>-0.021448</v>
       </c>
     </row>
     <row r="313">
@@ -5214,13 +5217,13 @@
         <v>77.75</v>
       </c>
       <c r="B313" s="1">
-        <v>3945066.0</v>
+        <v>3945162.0</v>
       </c>
       <c r="C313" s="1">
-        <v>1.1774588E7</v>
+        <v>1.1774876E7</v>
       </c>
       <c r="E313" s="2">
-        <v>-0.012496</v>
+        <v>-0.012493</v>
       </c>
     </row>
     <row r="314">
@@ -5229,13 +5232,13 @@
         <v>78</v>
       </c>
       <c r="B314" s="1">
-        <v>3834224.0</v>
+        <v>3834202.0</v>
       </c>
       <c r="C314" s="1">
-        <v>1.1526802E7</v>
+        <v>1.1526734E7</v>
       </c>
       <c r="E314" s="2">
-        <v>-0.003286</v>
+        <v>-0.003287</v>
       </c>
     </row>
     <row r="315">
@@ -5244,13 +5247,13 @@
         <v>78.25</v>
       </c>
       <c r="B315" s="1">
-        <v>3768532.0</v>
+        <v>3768498.0</v>
       </c>
       <c r="C315" s="1">
-        <v>1.1249506E7</v>
+        <v>1.1249488E7</v>
       </c>
       <c r="E315" s="2">
-        <v>0.00699</v>
+        <v>0.006989</v>
       </c>
     </row>
     <row r="316">
@@ -5259,13 +5262,13 @@
         <v>78.5</v>
       </c>
       <c r="B316" s="1">
-        <v>3657782.0</v>
+        <v>3657768.0</v>
       </c>
       <c r="C316" s="1">
-        <v>1.099689E7</v>
+        <v>1.099675E7</v>
       </c>
       <c r="E316" s="2">
-        <v>0.011124</v>
+        <v>0.011121</v>
       </c>
     </row>
     <row r="317">
@@ -5274,13 +5277,13 @@
         <v>78.75</v>
       </c>
       <c r="B317" s="1">
-        <v>3580628.0</v>
+        <v>3580598.0</v>
       </c>
       <c r="C317" s="1">
-        <v>1.0767294E7</v>
+        <v>1.0767246E7</v>
       </c>
       <c r="E317" s="2">
-        <v>0.013913</v>
+        <v>0.013907</v>
       </c>
     </row>
     <row r="318">
@@ -5289,13 +5292,13 @@
         <v>79</v>
       </c>
       <c r="B318" s="1">
-        <v>3464598.0</v>
+        <v>3464702.0</v>
       </c>
       <c r="C318" s="1">
-        <v>1.0513942E7</v>
+        <v>1.0514194E7</v>
       </c>
       <c r="E318" s="2">
-        <v>0.014283</v>
+        <v>0.014292</v>
       </c>
     </row>
     <row r="319">
@@ -5304,13 +5307,13 @@
         <v>79.25</v>
       </c>
       <c r="B319" s="1">
-        <v>3321062.0</v>
+        <v>3321040.0</v>
       </c>
       <c r="C319" s="1">
-        <v>1.025256E7</v>
+        <v>1.025252E7</v>
       </c>
       <c r="E319" s="2">
-        <v>0.006886</v>
+        <v>0.006888</v>
       </c>
     </row>
     <row r="320">
@@ -5319,13 +5322,13 @@
         <v>79.5</v>
       </c>
       <c r="B320" s="1">
-        <v>3183742.0</v>
+        <v>3183706.0</v>
       </c>
       <c r="C320" s="1">
-        <v>9976612.0</v>
+        <v>9976544.0</v>
       </c>
       <c r="E320" s="2">
-        <v>-0.00761</v>
+        <v>-0.007613</v>
       </c>
     </row>
     <row r="321">
@@ -5334,10 +5337,10 @@
         <v>79.75</v>
       </c>
       <c r="B321" s="1">
-        <v>3018964.0</v>
+        <v>3018966.0</v>
       </c>
       <c r="C321" s="1">
-        <v>9740736.0</v>
+        <v>9740684.0</v>
       </c>
       <c r="E321" s="2">
         <v>-0.016824</v>
@@ -5349,13 +5352,13 @@
         <v>80</v>
       </c>
       <c r="B322" s="1">
-        <v>2952426.0</v>
+        <v>2952442.0</v>
       </c>
       <c r="C322" s="1">
-        <v>9503532.0</v>
+        <v>9503456.0</v>
       </c>
       <c r="E322" s="2">
-        <v>-0.016042</v>
+        <v>-0.016038</v>
       </c>
     </row>
     <row r="323">
@@ -5364,13 +5367,13 @@
         <v>80.25</v>
       </c>
       <c r="B323" s="1">
-        <v>2908254.0</v>
+        <v>2908314.0</v>
       </c>
       <c r="C323" s="1">
-        <v>9256322.0</v>
+        <v>9256590.0</v>
       </c>
       <c r="E323" s="2">
-        <v>-0.016063</v>
+        <v>-0.016067</v>
       </c>
     </row>
     <row r="324">
@@ -5379,13 +5382,13 @@
         <v>80.5</v>
       </c>
       <c r="B324" s="1">
-        <v>2821226.0</v>
+        <v>2821214.0</v>
       </c>
       <c r="C324" s="1">
-        <v>8988440.0</v>
+        <v>8988432.0</v>
       </c>
       <c r="E324" s="2">
-        <v>-0.029125</v>
+        <v>-0.029119</v>
       </c>
     </row>
     <row r="325">
@@ -5394,13 +5397,13 @@
         <v>80.75</v>
       </c>
       <c r="B325" s="1">
-        <v>2726408.0</v>
+        <v>2726376.0</v>
       </c>
       <c r="C325" s="1">
-        <v>8745090.0</v>
+        <v>8745046.0</v>
       </c>
       <c r="E325" s="2">
-        <v>-0.038479</v>
+        <v>-0.038485</v>
       </c>
     </row>
     <row r="326">
@@ -5409,10 +5412,10 @@
         <v>81</v>
       </c>
       <c r="B326" s="1">
-        <v>2639100.0</v>
+        <v>2639092.0</v>
       </c>
       <c r="C326" s="1">
-        <v>8532096.0</v>
+        <v>8532034.0</v>
       </c>
       <c r="E326" s="2">
         <v>-0.043033</v>
@@ -5424,13 +5427,13 @@
         <v>81.25</v>
       </c>
       <c r="B327" s="1">
-        <v>2526418.0</v>
+        <v>2526454.0</v>
       </c>
       <c r="C327" s="1">
-        <v>8282424.0</v>
+        <v>8282572.0</v>
       </c>
       <c r="E327" s="2">
-        <v>-0.054645</v>
+        <v>-0.054642</v>
       </c>
     </row>
     <row r="328">
@@ -5439,13 +5442,13 @@
         <v>81.5</v>
       </c>
       <c r="B328" s="1">
-        <v>2433666.0</v>
+        <v>2433664.0</v>
       </c>
       <c r="C328" s="1">
-        <v>8031696.0</v>
+        <v>8031622.0</v>
       </c>
       <c r="E328" s="2">
-        <v>-0.06149</v>
+        <v>-0.061496</v>
       </c>
     </row>
     <row r="329">
@@ -5454,13 +5457,13 @@
         <v>81.75</v>
       </c>
       <c r="B329" s="1">
-        <v>2349114.0</v>
+        <v>2349094.0</v>
       </c>
       <c r="C329" s="1">
-        <v>7770816.0</v>
+        <v>7770820.0</v>
       </c>
       <c r="E329" s="2">
-        <v>-0.075773</v>
+        <v>-0.075764</v>
       </c>
     </row>
     <row r="330">
@@ -5469,13 +5472,13 @@
         <v>82</v>
       </c>
       <c r="B330" s="1">
-        <v>2258152.0</v>
+        <v>2258128.0</v>
       </c>
       <c r="C330" s="1">
-        <v>7527492.0</v>
+        <v>7527420.0</v>
       </c>
       <c r="E330" s="2">
-        <v>-0.086364</v>
+        <v>-0.086376</v>
       </c>
     </row>
     <row r="331">
@@ -5484,13 +5487,13 @@
         <v>82.25</v>
       </c>
       <c r="B331" s="1">
-        <v>2147702.0</v>
+        <v>2147722.0</v>
       </c>
       <c r="C331" s="1">
-        <v>7274874.0</v>
+        <v>7274848.0</v>
       </c>
       <c r="E331" s="2">
-        <v>-0.098592</v>
+        <v>-0.098593</v>
       </c>
     </row>
     <row r="332">
@@ -5499,13 +5502,13 @@
         <v>82.5</v>
       </c>
       <c r="B332" s="1">
-        <v>2036540.0</v>
+        <v>2036578.0</v>
       </c>
       <c r="C332" s="1">
-        <v>7034406.0</v>
+        <v>7034612.0</v>
       </c>
       <c r="E332" s="2">
-        <v>-0.106098</v>
+        <v>-0.106087</v>
       </c>
     </row>
     <row r="333">
@@ -5514,13 +5517,13 @@
         <v>82.75</v>
       </c>
       <c r="B333" s="1">
-        <v>1971530.0</v>
+        <v>1971526.0</v>
       </c>
       <c r="C333" s="1">
-        <v>6798606.0</v>
+        <v>6798534.0</v>
       </c>
       <c r="E333" s="2">
-        <v>-0.089515</v>
+        <v>-0.089523</v>
       </c>
     </row>
     <row r="334">
@@ -5529,13 +5532,13 @@
         <v>83</v>
       </c>
       <c r="B334" s="1">
-        <v>1883958.0</v>
+        <v>1883946.0</v>
       </c>
       <c r="C334" s="1">
-        <v>6579776.0</v>
+        <v>6579794.0</v>
       </c>
       <c r="E334" s="2">
-        <v>-0.086864</v>
+        <v>-0.086852</v>
       </c>
     </row>
     <row r="335">
@@ -5544,13 +5547,13 @@
         <v>83.25</v>
       </c>
       <c r="B335" s="1">
-        <v>1827196.0</v>
+        <v>1827214.0</v>
       </c>
       <c r="C335" s="1">
-        <v>6327840.0</v>
+        <v>6327778.0</v>
       </c>
       <c r="E335" s="2">
-        <v>-0.08556</v>
+        <v>-0.085565</v>
       </c>
     </row>
     <row r="336">
@@ -5559,13 +5562,13 @@
         <v>83.5</v>
       </c>
       <c r="B336" s="1">
-        <v>1722422.0</v>
+        <v>1722394.0</v>
       </c>
       <c r="C336" s="1">
-        <v>6079668.0</v>
+        <v>6079646.0</v>
       </c>
       <c r="E336" s="2">
-        <v>-0.087121</v>
+        <v>-0.087123</v>
       </c>
     </row>
     <row r="337">
@@ -5574,13 +5577,13 @@
         <v>83.75</v>
       </c>
       <c r="B337" s="1">
-        <v>1635232.0</v>
+        <v>1635260.0</v>
       </c>
       <c r="C337" s="1">
-        <v>5817364.0</v>
+        <v>5817464.0</v>
       </c>
       <c r="E337" s="2">
-        <v>-0.08217</v>
+        <v>-0.082172</v>
       </c>
     </row>
     <row r="338">
@@ -5589,13 +5592,13 @@
         <v>84</v>
       </c>
       <c r="B338" s="1">
-        <v>1558682.0</v>
+        <v>1558694.0</v>
       </c>
       <c r="C338" s="1">
-        <v>5575836.0</v>
+        <v>5575838.0</v>
       </c>
       <c r="E338" s="2">
-        <v>-0.076861</v>
+        <v>-0.076857</v>
       </c>
     </row>
     <row r="339">
@@ -5604,13 +5607,13 @@
         <v>84.25</v>
       </c>
       <c r="B339" s="1">
-        <v>1494032.0</v>
+        <v>1494018.0</v>
       </c>
       <c r="C339" s="1">
-        <v>5323350.0</v>
+        <v>5323312.0</v>
       </c>
       <c r="E339" s="2">
-        <v>-0.074802</v>
+        <v>-0.074799</v>
       </c>
     </row>
     <row r="340">
@@ -5619,13 +5622,13 @@
         <v>84.5</v>
       </c>
       <c r="B340" s="1">
-        <v>1393940.0</v>
+        <v>1393926.0</v>
       </c>
       <c r="C340" s="1">
-        <v>5075590.0</v>
+        <v>5075584.0</v>
       </c>
       <c r="E340" s="2">
-        <v>-0.078534</v>
+        <v>-0.078533</v>
       </c>
     </row>
     <row r="341">
@@ -5634,13 +5637,13 @@
         <v>84.75</v>
       </c>
       <c r="B341" s="1">
-        <v>1320246.0</v>
+        <v>1320248.0</v>
       </c>
       <c r="C341" s="1">
-        <v>4851670.0</v>
+        <v>4851646.0</v>
       </c>
       <c r="E341" s="2">
-        <v>-0.067247</v>
+        <v>-0.067243</v>
       </c>
     </row>
     <row r="342">
@@ -5649,13 +5652,13 @@
         <v>85</v>
       </c>
       <c r="B342" s="1">
-        <v>1216250.0</v>
+        <v>1216282.0</v>
       </c>
       <c r="C342" s="1">
-        <v>4627294.0</v>
+        <v>4627372.0</v>
       </c>
       <c r="E342" s="2">
-        <v>-0.067706</v>
+        <v>-0.06772</v>
       </c>
     </row>
     <row r="343">
@@ -5664,13 +5667,13 @@
         <v>85.25</v>
       </c>
       <c r="B343" s="1">
-        <v>1087630.0</v>
+        <v>1087632.0</v>
       </c>
       <c r="C343" s="1">
-        <v>4390424.0</v>
+        <v>4390446.0</v>
       </c>
       <c r="E343" s="2">
-        <v>-0.087225</v>
+        <v>-0.087212</v>
       </c>
     </row>
     <row r="344">
@@ -5679,13 +5682,13 @@
         <v>85.5</v>
       </c>
       <c r="B344" s="1">
-        <v>996718.0</v>
+        <v>996690.0</v>
       </c>
       <c r="C344" s="1">
-        <v>4166752.0</v>
+        <v>4166698.0</v>
       </c>
       <c r="E344" s="2">
-        <v>-0.081298</v>
+        <v>-0.081306</v>
       </c>
     </row>
     <row r="345">
@@ -5694,13 +5697,13 @@
         <v>85.75</v>
       </c>
       <c r="B345" s="1">
-        <v>904694.0</v>
+        <v>904710.0</v>
       </c>
       <c r="C345" s="1">
-        <v>3955346.0</v>
+        <v>3955368.0</v>
       </c>
       <c r="E345" s="2">
-        <v>-0.067471</v>
+        <v>-0.06746</v>
       </c>
     </row>
     <row r="346">
@@ -5709,13 +5712,13 @@
         <v>86</v>
       </c>
       <c r="B346" s="1">
-        <v>830180.0</v>
+        <v>830174.0</v>
       </c>
       <c r="C346" s="1">
-        <v>3724212.0</v>
+        <v>3724176.0</v>
       </c>
       <c r="E346" s="2">
-        <v>-0.061099</v>
+        <v>-0.0611</v>
       </c>
     </row>
     <row r="347">
@@ -5724,13 +5727,13 @@
         <v>86.25</v>
       </c>
       <c r="B347" s="1">
-        <v>759506.0</v>
+        <v>759522.0</v>
       </c>
       <c r="C347" s="1">
-        <v>3480856.0</v>
+        <v>3480952.0</v>
       </c>
       <c r="E347" s="2">
-        <v>-0.073646</v>
+        <v>-0.073644</v>
       </c>
     </row>
     <row r="348">
@@ -5742,10 +5745,10 @@
         <v>691284.0</v>
       </c>
       <c r="C348" s="1">
-        <v>3257524.0</v>
+        <v>3257488.0</v>
       </c>
       <c r="E348" s="2">
-        <v>-0.082811</v>
+        <v>-0.08282</v>
       </c>
     </row>
     <row r="349">
@@ -5754,13 +5757,13 @@
         <v>86.75</v>
       </c>
       <c r="B349" s="1">
-        <v>611926.0</v>
+        <v>611924.0</v>
       </c>
       <c r="C349" s="1">
-        <v>3000876.0</v>
+        <v>3000864.0</v>
       </c>
       <c r="E349" s="2">
-        <v>-0.113797</v>
+        <v>-0.113798</v>
       </c>
     </row>
     <row r="350">
@@ -5769,13 +5772,13 @@
         <v>87</v>
       </c>
       <c r="B350" s="1">
-        <v>550666.0</v>
+        <v>550656.0</v>
       </c>
       <c r="C350" s="1">
-        <v>2774368.0</v>
+        <v>2774382.0</v>
       </c>
       <c r="E350" s="2">
-        <v>-0.126062</v>
+        <v>-0.12606</v>
       </c>
     </row>
     <row r="351">
@@ -5784,13 +5787,13 @@
         <v>87.25</v>
       </c>
       <c r="B351" s="1">
-        <v>508756.0</v>
+        <v>508770.0</v>
       </c>
       <c r="C351" s="1">
-        <v>2546610.0</v>
+        <v>2546662.0</v>
       </c>
       <c r="E351" s="2">
-        <v>-0.113929</v>
+        <v>-0.113933</v>
       </c>
     </row>
     <row r="352">
@@ -5799,13 +5802,13 @@
         <v>87.5</v>
       </c>
       <c r="B352" s="1">
-        <v>460848.0</v>
+        <v>460850.0</v>
       </c>
       <c r="C352" s="1">
-        <v>2296684.0</v>
+        <v>2296674.0</v>
       </c>
       <c r="E352" s="2">
-        <v>-0.095007</v>
+        <v>-0.095001</v>
       </c>
     </row>
     <row r="353">
@@ -5814,13 +5817,13 @@
         <v>87.75</v>
       </c>
       <c r="B353" s="1">
-        <v>398736.0</v>
+        <v>398742.0</v>
       </c>
       <c r="C353" s="1">
-        <v>2053388.0</v>
+        <v>2053380.0</v>
       </c>
       <c r="E353" s="2">
-        <v>-0.103164</v>
+        <v>-0.103163</v>
       </c>
     </row>
     <row r="354">
@@ -5829,13 +5832,13 @@
         <v>88</v>
       </c>
       <c r="B354" s="1">
-        <v>349106.0</v>
+        <v>349098.0</v>
       </c>
       <c r="C354" s="1">
-        <v>1818560.0</v>
+        <v>1818556.0</v>
       </c>
       <c r="E354" s="2">
-        <v>-0.111893</v>
+        <v>-0.111899</v>
       </c>
     </row>
     <row r="355">
@@ -5844,13 +5847,13 @@
         <v>88.25</v>
       </c>
       <c r="B355" s="1">
-        <v>286520.0</v>
+        <v>286514.0</v>
       </c>
       <c r="C355" s="1">
-        <v>1544758.0</v>
+        <v>1544782.0</v>
       </c>
       <c r="E355" s="2">
-        <v>-0.158715</v>
+        <v>-0.158689</v>
       </c>
     </row>
     <row r="356">
@@ -5859,13 +5862,13 @@
         <v>88.5</v>
       </c>
       <c r="B356" s="1">
-        <v>228320.0</v>
+        <v>228332.0</v>
       </c>
       <c r="C356" s="1">
-        <v>1291860.0</v>
+        <v>1291872.0</v>
       </c>
       <c r="E356" s="2">
-        <v>-0.205332</v>
+        <v>-0.205358</v>
       </c>
     </row>
     <row r="357">
@@ -5874,13 +5877,13 @@
         <v>88.75</v>
       </c>
       <c r="B357" s="1">
-        <v>177678.0</v>
+        <v>177680.0</v>
       </c>
       <c r="C357" s="1">
-        <v>1054784.0</v>
+        <v>1054764.0</v>
       </c>
       <c r="E357" s="2">
-        <v>-0.189102</v>
+        <v>-0.189121</v>
       </c>
     </row>
     <row r="358">
@@ -5889,13 +5892,13 @@
         <v>89</v>
       </c>
       <c r="B358" s="1">
-        <v>115578.0</v>
+        <v>115580.0</v>
       </c>
       <c r="C358" s="1">
-        <v>814450.0</v>
+        <v>814466.0</v>
       </c>
       <c r="E358" s="2">
-        <v>-0.156348</v>
+        <v>-0.156321</v>
       </c>
     </row>
     <row r="359">
@@ -5907,10 +5910,10 @@
         <v>59824.0</v>
       </c>
       <c r="C359" s="1">
-        <v>591840.0</v>
+        <v>591850.0</v>
       </c>
       <c r="E359" s="2">
-        <v>-0.127301</v>
+        <v>-0.127286</v>
       </c>
     </row>
     <row r="360">
@@ -5919,13 +5922,13 @@
         <v>89.5</v>
       </c>
       <c r="B360" s="1">
-        <v>21314.0</v>
+        <v>21312.0</v>
       </c>
       <c r="C360" s="1">
-        <v>363880.0</v>
+        <v>363878.0</v>
       </c>
       <c r="E360" s="2">
-        <v>-0.120815</v>
+        <v>-0.120832</v>
       </c>
     </row>
     <row r="361">
@@ -5934,13 +5937,13 @@
         <v>89.75</v>
       </c>
       <c r="B361" s="1">
-        <v>2436.0</v>
+        <v>2438.0</v>
       </c>
       <c r="C361" s="1">
-        <v>132064.0</v>
+        <v>132074.0</v>
       </c>
       <c r="E361" s="2">
-        <v>-0.039239</v>
+        <v>-0.039281</v>
       </c>
     </row>
     <row r="362">
@@ -11389,11 +11392,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/c/results/sheet.xlsx
+++ b/src/c/results/sheet.xlsx
@@ -190,11 +190,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="811166758"/>
-        <c:axId val="1503613836"/>
+        <c:axId val="159806880"/>
+        <c:axId val="1259785479"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="811166758"/>
+        <c:axId val="159806880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -226,10 +226,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1503613836"/>
+        <c:crossAx val="1259785479"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1503613836"/>
+        <c:axId val="1259785479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -277,7 +277,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811166758"/>
+        <c:crossAx val="159806880"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -343,11 +343,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2107108860"/>
-        <c:axId val="1366956316"/>
+        <c:axId val="1206765323"/>
+        <c:axId val="578217009"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107108860"/>
+        <c:axId val="1206765323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,10 +379,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1366956316"/>
+        <c:crossAx val="578217009"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1366956316"/>
+        <c:axId val="578217009"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,7 +430,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107108860"/>
+        <c:crossAx val="1206765323"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -471,7 +471,7 @@
     <xdr:ext cx="8610600" cy="6276975"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -496,7 +496,7 @@
     <xdr:ext cx="8610600" cy="6276975"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1353,7 +1353,7 @@
         <v>3.3388078E7</v>
       </c>
       <c r="E55" s="2">
-        <v>0.234289</v>
+        <v>0.234288</v>
       </c>
     </row>
     <row r="56">
@@ -1458,7 +1458,7 @@
         <v>3.5307262E7</v>
       </c>
       <c r="E62" s="2">
-        <v>0.17627</v>
+        <v>0.176271</v>
       </c>
     </row>
     <row r="63">
@@ -1743,7 +1743,7 @@
         <v>3.9218168E7</v>
       </c>
       <c r="E81" s="2">
-        <v>0.06387</v>
+        <v>0.063871</v>
       </c>
     </row>
     <row r="82">
@@ -1803,7 +1803,7 @@
         <v>3.9786758E7</v>
       </c>
       <c r="E85" s="2">
-        <v>0.049956</v>
+        <v>0.049957</v>
       </c>
     </row>
     <row r="86">
@@ -2253,7 +2253,7 @@
         <v>4.2201126E7</v>
       </c>
       <c r="E115" s="2">
-        <v>0.024761</v>
+        <v>0.024762</v>
       </c>
     </row>
     <row r="116">
@@ -2493,7 +2493,7 @@
         <v>4.2361866E7</v>
       </c>
       <c r="E131" s="2">
-        <v>-0.006505</v>
+        <v>-0.006506</v>
       </c>
     </row>
     <row r="132">
@@ -3033,7 +3033,7 @@
         <v>4.027807E7</v>
       </c>
       <c r="E167" s="2">
-        <v>-0.10513</v>
+        <v>-0.105129</v>
       </c>
     </row>
     <row r="168">
@@ -3138,7 +3138,7 @@
         <v>3.9597304E7</v>
       </c>
       <c r="E174" s="2">
-        <v>-0.066791</v>
+        <v>-0.06679</v>
       </c>
     </row>
     <row r="175">
@@ -3153,7 +3153,7 @@
         <v>3.9486822E7</v>
       </c>
       <c r="E175" s="2">
-        <v>-0.069061</v>
+        <v>-0.06906</v>
       </c>
     </row>
     <row r="176">
@@ -3198,7 +3198,7 @@
         <v>3.9163852E7</v>
       </c>
       <c r="E178" s="2">
-        <v>-0.053941</v>
+        <v>-0.05394</v>
       </c>
     </row>
     <row r="179">
@@ -3588,7 +3588,7 @@
         <v>3.539257E7</v>
       </c>
       <c r="E204" s="2">
-        <v>-0.123381</v>
+        <v>-0.123382</v>
       </c>
     </row>
     <row r="205">
@@ -3633,7 +3633,7 @@
         <v>3.4898562E7</v>
       </c>
       <c r="E207" s="2">
-        <v>-0.126459</v>
+        <v>-0.12646</v>
       </c>
     </row>
     <row r="208">
@@ -3723,7 +3723,7 @@
         <v>3.3910004E7</v>
       </c>
       <c r="E213" s="2">
-        <v>-0.142669</v>
+        <v>-0.14267</v>
       </c>
     </row>
     <row r="214">
@@ -4083,7 +4083,7 @@
         <v>2.9328704E7</v>
       </c>
       <c r="E237" s="2">
-        <v>-0.206414</v>
+        <v>-0.206413</v>
       </c>
     </row>
     <row r="238">
@@ -4308,7 +4308,7 @@
         <v>2.6247302E7</v>
       </c>
       <c r="E252" s="2">
-        <v>-0.216748</v>
+        <v>-0.216747</v>
       </c>
     </row>
     <row r="253">
@@ -4623,7 +4623,7 @@
         <v>2.145903E7</v>
       </c>
       <c r="E273" s="2">
-        <v>-0.244879</v>
+        <v>-0.244878</v>
       </c>
     </row>
     <row r="274">
